--- a/Web/UserEx.Web/wwwroot/Files/CDRs-05_11_09_2022-58_Test.xlsx
+++ b/Web/UserEx.Web/wwwroot/Files/CDRs-05_11_09_2022-58_Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://naxex-my.sharepoint.com/personal/emil_hristov_tiebreak_solutions/Documents/Stuff/coding/ASP.NET/UseEx_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:40009_{FE1188AE-CE64-4C70-85CC-BE83470E41A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D875C23-5657-49F8-B92A-5810998FAF70}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:40009_{FE1188AE-CE64-4C70-85CC-BE83470E41A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B4B27DA-B9BA-4FBA-8AA2-FA09ECA673F9}"/>
   <bookViews>
-    <workbookView xWindow="8235" yWindow="1515" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CDRs-05_11_09_2022-58" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -52,12 +52,6 @@
   </si>
   <si>
     <t>Duration</t>
-  </si>
-  <si>
-    <t>IDT-UK</t>
-  </si>
-  <si>
-    <t>VOICESPIN</t>
   </si>
   <si>
     <t>Provider</t>
@@ -82,6 +76,15 @@
   </si>
   <si>
     <t>Dial Code</t>
+  </si>
+  <si>
+    <t>DIDWW</t>
+  </si>
+  <si>
+    <t>DIDlogic</t>
+  </si>
+  <si>
+    <t>restricted</t>
   </si>
 </sst>
 </file>
@@ -924,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,7 +954,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -960,7 +963,7 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -983,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1006,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1029,7 +1032,858 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>6</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>44809.656388888892</v>
+      </c>
+      <c r="B5" s="2">
+        <v>582123359400</v>
+      </c>
+      <c r="C5" s="2">
+        <v>584127742643</v>
+      </c>
+      <c r="D5">
+        <v>58412</v>
+      </c>
+      <c r="E5">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>44809.687210648146</v>
+      </c>
+      <c r="B6" s="2">
+        <v>582123359400</v>
+      </c>
+      <c r="C6" s="2">
+        <v>584247026833</v>
+      </c>
+      <c r="D6">
+        <v>58424</v>
+      </c>
+      <c r="E6">
+        <v>0.05</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>44809.687986111108</v>
+      </c>
+      <c r="B7" s="2">
+        <v>582123359400</v>
+      </c>
+      <c r="C7" s="2">
+        <v>584247026833</v>
+      </c>
+      <c r="D7">
+        <v>58424</v>
+      </c>
+      <c r="E7">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>44809.691817129627</v>
+      </c>
+      <c r="B8" s="2">
+        <v>582123358883</v>
+      </c>
+      <c r="C8" s="2">
+        <v>584147161946</v>
+      </c>
+      <c r="D8">
+        <v>58414</v>
+      </c>
+      <c r="E8">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>44809.692442129628</v>
+      </c>
+      <c r="B9" s="2">
+        <v>582123358883</v>
+      </c>
+      <c r="C9" s="2">
+        <v>584147161946</v>
+      </c>
+      <c r="D9">
+        <v>58414</v>
+      </c>
+      <c r="E9">
+        <v>8.4239999999999995E-2</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>44809.696018518516</v>
+      </c>
+      <c r="B10" s="2">
+        <v>582123359400</v>
+      </c>
+      <c r="C10" s="2">
+        <v>584145289542</v>
+      </c>
+      <c r="D10">
+        <v>58414</v>
+      </c>
+      <c r="E10">
+        <v>0.05</v>
+      </c>
+      <c r="F10">
+        <v>138</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>44809.697893518518</v>
+      </c>
+      <c r="B11" s="2">
+        <v>582123358883</v>
+      </c>
+      <c r="C11" s="2">
+        <v>584145729872</v>
+      </c>
+      <c r="D11">
+        <v>58414</v>
+      </c>
+      <c r="E11">
+        <v>0.05</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>44809.697928240741</v>
+      </c>
+      <c r="B12" s="2">
+        <v>582123359400</v>
+      </c>
+      <c r="C12" s="2">
+        <v>584145289542</v>
+      </c>
+      <c r="D12">
+        <v>58414</v>
+      </c>
+      <c r="E12">
+        <v>0.05</v>
+      </c>
+      <c r="F12">
+        <v>28</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>44809.698634259257</v>
+      </c>
+      <c r="B13" s="2">
+        <v>582123358883</v>
+      </c>
+      <c r="C13" s="2">
+        <v>584145729872</v>
+      </c>
+      <c r="D13">
+        <v>58414</v>
+      </c>
+      <c r="E13">
+        <v>0.05</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>44809.71334490741</v>
+      </c>
+      <c r="B14" s="2">
+        <v>582123358883</v>
+      </c>
+      <c r="C14" s="2">
+        <v>584246265377</v>
+      </c>
+      <c r="D14">
+        <v>58424</v>
+      </c>
+      <c r="E14">
+        <v>8.4239999999999995E-2</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>44809.713796296295</v>
+      </c>
+      <c r="B15" s="2">
+        <v>582123358883</v>
+      </c>
+      <c r="C15" s="2">
+        <v>584246265377</v>
+      </c>
+      <c r="D15">
+        <v>58424</v>
+      </c>
+      <c r="E15">
+        <v>8.4239999999999995E-2</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>44809.714409722219</v>
+      </c>
+      <c r="B16" s="2">
+        <v>582123358883</v>
+      </c>
+      <c r="C16" s="2">
+        <v>584246265377</v>
+      </c>
+      <c r="D16">
+        <v>58424</v>
+      </c>
+      <c r="E16">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>44809.715624999997</v>
+      </c>
+      <c r="B17" s="2">
+        <v>576015087102</v>
+      </c>
+      <c r="C17" s="2">
+        <v>584124651224</v>
+      </c>
+      <c r="D17">
+        <v>58412</v>
+      </c>
+      <c r="E17">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="F17">
+        <v>23</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>44809.716446759259</v>
+      </c>
+      <c r="B18" s="2">
+        <v>576015087102</v>
+      </c>
+      <c r="C18" s="2">
+        <v>584124651224</v>
+      </c>
+      <c r="D18">
+        <v>58412</v>
+      </c>
+      <c r="E18">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="F18">
+        <v>15</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>44809.716643518521</v>
+      </c>
+      <c r="B19" s="2">
+        <v>582123358883</v>
+      </c>
+      <c r="C19" s="2">
+        <v>584246265377</v>
+      </c>
+      <c r="D19">
+        <v>58424</v>
+      </c>
+      <c r="E19">
+        <v>8.4239999999999995E-2</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>44809.717141203706</v>
+      </c>
+      <c r="B20" s="2">
+        <v>582123358883</v>
+      </c>
+      <c r="C20" s="2">
+        <v>584246265377</v>
+      </c>
+      <c r="D20">
+        <v>58424</v>
+      </c>
+      <c r="E20">
+        <v>0.05</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>44809.738402777781</v>
+      </c>
+      <c r="B21" s="2">
+        <v>582123359401</v>
+      </c>
+      <c r="C21" s="2">
+        <v>584264178094</v>
+      </c>
+      <c r="D21">
+        <v>58426</v>
+      </c>
+      <c r="E21">
+        <v>3.313E-2</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>44809.738483796296</v>
+      </c>
+      <c r="B22" s="2">
+        <v>582123359401</v>
+      </c>
+      <c r="C22" s="2">
+        <v>584264178094</v>
+      </c>
+      <c r="D22">
+        <v>58426</v>
+      </c>
+      <c r="E22">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>44809.738622685189</v>
+      </c>
+      <c r="B23" s="2">
+        <v>582123359401</v>
+      </c>
+      <c r="C23" s="2">
+        <v>584264178094</v>
+      </c>
+      <c r="D23">
+        <v>58426</v>
+      </c>
+      <c r="E23">
+        <v>3.313E-2</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>44809.738749999997</v>
+      </c>
+      <c r="B24" s="2">
+        <v>582123359401</v>
+      </c>
+      <c r="C24" s="2">
+        <v>584264178094</v>
+      </c>
+      <c r="D24">
+        <v>58426</v>
+      </c>
+      <c r="E24">
+        <v>0.05</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>44809.741863425923</v>
+      </c>
+      <c r="B25" s="2">
+        <v>582123358883</v>
+      </c>
+      <c r="C25" s="2">
+        <v>584166745200</v>
+      </c>
+      <c r="D25">
+        <v>58416</v>
+      </c>
+      <c r="E25">
+        <v>3.313E-2</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>44809.742199074077</v>
+      </c>
+      <c r="B26" s="2">
+        <v>582123358883</v>
+      </c>
+      <c r="C26" s="2">
+        <v>584166745200</v>
+      </c>
+      <c r="D26">
+        <v>58416</v>
+      </c>
+      <c r="E26">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>44809.752754629626</v>
+      </c>
+      <c r="B27" s="2">
+        <v>582123358883</v>
+      </c>
+      <c r="C27" s="2">
+        <v>584120793060</v>
+      </c>
+      <c r="D27">
+        <v>58412</v>
+      </c>
+      <c r="E27">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="F27">
+        <v>44</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>44809.75708333333</v>
+      </c>
+      <c r="B28" s="2">
+        <v>582123358883</v>
+      </c>
+      <c r="C28" s="2">
+        <v>584247680107</v>
+      </c>
+      <c r="D28">
+        <v>58424</v>
+      </c>
+      <c r="E28">
+        <v>8.4239999999999995E-2</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>44809.757199074076</v>
+      </c>
+      <c r="B29" s="2">
+        <v>582123358883</v>
+      </c>
+      <c r="C29" s="2">
+        <v>584247680107</v>
+      </c>
+      <c r="D29">
+        <v>58424</v>
+      </c>
+      <c r="E29">
+        <v>0.05</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>44809.767210648148</v>
+      </c>
+      <c r="B30" s="2">
+        <v>582123359400</v>
+      </c>
+      <c r="C30" s="2">
+        <v>584126041686</v>
+      </c>
+      <c r="D30">
+        <v>58412</v>
+      </c>
+      <c r="E30">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>44809.767754629633</v>
+      </c>
+      <c r="B31" s="2">
+        <v>582123359400</v>
+      </c>
+      <c r="C31" s="2">
+        <v>584126041686</v>
+      </c>
+      <c r="D31">
+        <v>58412</v>
+      </c>
+      <c r="E31">
+        <v>7.9799999999999996E-2</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>44809.768240740741</v>
+      </c>
+      <c r="B32" s="2">
+        <v>582123359400</v>
+      </c>
+      <c r="C32" s="2">
+        <v>584126041686</v>
+      </c>
+      <c r="D32">
+        <v>58412</v>
+      </c>
+      <c r="E32">
+        <v>7.9799999999999996E-2</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>44809.768576388888</v>
+      </c>
+      <c r="B33" s="2">
+        <v>582123359400</v>
+      </c>
+      <c r="C33" s="2">
+        <v>584126041686</v>
+      </c>
+      <c r="D33">
+        <v>58412</v>
+      </c>
+      <c r="E33">
+        <v>7.9799999999999996E-2</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>44809.768738425926</v>
+      </c>
+      <c r="B34" s="2">
+        <v>582123359400</v>
+      </c>
+      <c r="C34" s="2">
+        <v>584126041686</v>
+      </c>
+      <c r="D34">
+        <v>58412</v>
+      </c>
+      <c r="E34">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>44809.770983796298</v>
+      </c>
+      <c r="B35" s="2">
+        <v>582123358883</v>
+      </c>
+      <c r="C35" s="2">
+        <v>584141208521</v>
+      </c>
+      <c r="D35">
+        <v>58414</v>
+      </c>
+      <c r="E35">
+        <v>8.4239999999999995E-2</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>44809.771226851852</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="2">
+        <v>584141208521</v>
+      </c>
+      <c r="D36">
+        <v>58414</v>
+      </c>
+      <c r="E36">
+        <v>8.4239999999999995E-2</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>44809.777372685188</v>
+      </c>
+      <c r="B37" s="2">
+        <v>582123358883</v>
+      </c>
+      <c r="C37" s="2">
+        <v>584241954301</v>
+      </c>
+      <c r="D37">
+        <v>58424</v>
+      </c>
+      <c r="E37">
+        <v>0.05</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>44809.780173611114</v>
+      </c>
+      <c r="B38" s="2">
+        <v>528153503308</v>
+      </c>
+      <c r="C38" s="2">
+        <v>58983708318</v>
+      </c>
+      <c r="D38">
+        <v>58</v>
+      </c>
+      <c r="E38">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>44809.780173611114</v>
+      </c>
+      <c r="B39" s="2">
+        <v>528153503308</v>
+      </c>
+      <c r="C39" s="2">
+        <v>58983708318</v>
+      </c>
+      <c r="D39">
+        <v>58</v>
+      </c>
+      <c r="E39">
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>44809.780173611114</v>
+      </c>
+      <c r="B40" s="2">
+        <v>528153503308</v>
+      </c>
+      <c r="C40" s="2">
+        <v>58983708318</v>
+      </c>
+      <c r="D40">
+        <v>58</v>
+      </c>
+      <c r="E40">
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>44809.781678240739</v>
+      </c>
+      <c r="B41" s="2">
+        <v>582123359400</v>
+      </c>
+      <c r="C41" s="2">
+        <v>584125962478</v>
+      </c>
+      <c r="D41">
+        <v>58412</v>
+      </c>
+      <c r="E41">
+        <v>7.9799999999999996E-2</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1075,7 +1929,7 @@
         <v>58412</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>58412</v>
@@ -1090,7 +1944,7 @@
         <v>58412</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>58412</v>
@@ -1105,7 +1959,7 @@
         <v>58412</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>58412</v>
@@ -1120,7 +1974,7 @@
         <v>58424</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>58424</v>
@@ -1135,7 +1989,7 @@
         <v>58424</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>58424</v>
@@ -1150,7 +2004,7 @@
         <v>58414</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <v>58414</v>
@@ -1165,7 +2019,7 @@
         <v>58414</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D8">
         <v>58414</v>
@@ -1180,7 +2034,7 @@
         <v>58414</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D9">
         <v>58414</v>
@@ -1195,7 +2049,7 @@
         <v>58414</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D10">
         <v>58414</v>
@@ -1210,7 +2064,7 @@
         <v>58414</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D11">
         <v>58414</v>
@@ -1225,7 +2079,7 @@
         <v>58414</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D12">
         <v>58414</v>
@@ -1240,7 +2094,7 @@
         <v>58424</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D13">
         <v>58424</v>
@@ -1255,7 +2109,7 @@
         <v>58424</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D14">
         <v>58424</v>
@@ -1270,7 +2124,7 @@
         <v>58424</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D15">
         <v>58424</v>
@@ -1285,7 +2139,7 @@
         <v>58412</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D16">
         <v>58412</v>
@@ -1300,7 +2154,7 @@
         <v>58412</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D17">
         <v>58412</v>
@@ -1315,7 +2169,7 @@
         <v>58424</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D18">
         <v>58424</v>
@@ -1330,7 +2184,7 @@
         <v>58424</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D19">
         <v>58424</v>
@@ -1345,7 +2199,7 @@
         <v>58426</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D20">
         <v>58426</v>
@@ -1360,7 +2214,7 @@
         <v>58426</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D21">
         <v>58426</v>
@@ -1375,7 +2229,7 @@
         <v>58426</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D22">
         <v>58426</v>
@@ -1390,7 +2244,7 @@
         <v>58426</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D23">
         <v>58426</v>
@@ -1405,7 +2259,7 @@
         <v>58416</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D24">
         <v>58416</v>
@@ -1420,7 +2274,7 @@
         <v>58416</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D25">
         <v>58416</v>
@@ -1435,7 +2289,7 @@
         <v>58412</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D26">
         <v>58412</v>
@@ -1450,7 +2304,7 @@
         <v>58424</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D27">
         <v>58424</v>
@@ -1465,7 +2319,7 @@
         <v>58424</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D28">
         <v>58424</v>
@@ -1480,7 +2334,7 @@
         <v>58412</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D29">
         <v>58412</v>
@@ -1495,7 +2349,7 @@
         <v>58412</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D30">
         <v>58412</v>
@@ -1510,7 +2364,7 @@
         <v>58412</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D31">
         <v>58412</v>
@@ -1525,7 +2379,7 @@
         <v>58412</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D32">
         <v>58412</v>
@@ -1540,7 +2394,7 @@
         <v>58412</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D33">
         <v>58412</v>
@@ -1555,7 +2409,7 @@
         <v>58414</v>
       </c>
       <c r="C34" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D34">
         <v>58414</v>
@@ -1570,7 +2424,7 @@
         <v>58414</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D35">
         <v>58414</v>
@@ -1585,7 +2439,7 @@
         <v>58424</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D36">
         <v>58424</v>
@@ -1600,7 +2454,7 @@
         <v>58</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D37">
         <v>58</v>
@@ -1615,7 +2469,7 @@
         <v>58</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D38">
         <v>58</v>
@@ -1630,7 +2484,7 @@
         <v>58</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D39">
         <v>58</v>
@@ -1645,7 +2499,7 @@
         <v>58412</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D40">
         <v>58412</v>
@@ -1660,7 +2514,7 @@
         <v>58412</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D41">
         <v>58412</v>
@@ -1675,7 +2529,7 @@
         <v>58412</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D42">
         <v>58412</v>
@@ -1690,7 +2544,7 @@
         <v>58412</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D43">
         <v>58412</v>
@@ -1705,7 +2559,7 @@
         <v>58412</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D44">
         <v>58412</v>
@@ -1720,7 +2574,7 @@
         <v>58412</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D45">
         <v>58412</v>
@@ -1735,7 +2589,7 @@
         <v>58412</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D46">
         <v>58412</v>
@@ -1750,7 +2604,7 @@
         <v>58412</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D47">
         <v>58412</v>
@@ -1765,7 +2619,7 @@
         <v>58412</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D48">
         <v>58412</v>
@@ -1780,7 +2634,7 @@
         <v>58412</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D49">
         <v>58412</v>
@@ -1795,7 +2649,7 @@
         <v>58412</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D50">
         <v>58412</v>
@@ -1810,7 +2664,7 @@
         <v>58412</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D51">
         <v>58412</v>
@@ -1825,7 +2679,7 @@
         <v>58424</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D52">
         <v>58424</v>
@@ -1840,7 +2694,7 @@
         <v>58424</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D53">
         <v>58424</v>
@@ -1855,7 +2709,7 @@
         <v>58424</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D54">
         <v>58424</v>
@@ -1870,7 +2724,7 @@
         <v>58424</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D55">
         <v>58424</v>
@@ -1885,7 +2739,7 @@
         <v>58412</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D56">
         <v>58412</v>
@@ -1900,7 +2754,7 @@
         <v>58412</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D57">
         <v>58412</v>
@@ -1915,7 +2769,7 @@
         <v>58424</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D58">
         <v>58424</v>
@@ -1930,7 +2784,7 @@
         <v>58412</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D59">
         <v>58412</v>
@@ -1945,7 +2799,7 @@
         <v>58412</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D60">
         <v>58412</v>
@@ -1960,7 +2814,7 @@
         <v>58424</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D61">
         <v>58424</v>
@@ -1975,7 +2829,7 @@
         <v>58412</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D62">
         <v>58412</v>
@@ -1990,7 +2844,7 @@
         <v>58424</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D63">
         <v>58424</v>
@@ -2005,7 +2859,7 @@
         <v>58424</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D64">
         <v>58424</v>
@@ -2020,7 +2874,7 @@
         <v>58424</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D65">
         <v>58424</v>
@@ -2035,7 +2889,7 @@
         <v>58424</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D66">
         <v>58424</v>
@@ -2050,7 +2904,7 @@
         <v>58424</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D67">
         <v>58424</v>
@@ -2065,7 +2919,7 @@
         <v>58424</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D68">
         <v>58424</v>
@@ -2080,7 +2934,7 @@
         <v>58414</v>
       </c>
       <c r="C69" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D69">
         <v>58414</v>
@@ -2095,7 +2949,7 @@
         <v>58412</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D70">
         <v>58412</v>
@@ -2110,7 +2964,7 @@
         <v>58416</v>
       </c>
       <c r="C71" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D71">
         <v>58416</v>
@@ -2125,7 +2979,7 @@
         <v>58</v>
       </c>
       <c r="C72" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D72">
         <v>58</v>
@@ -2140,7 +2994,7 @@
         <v>58</v>
       </c>
       <c r="C73" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D73">
         <v>58</v>
@@ -2155,7 +3009,7 @@
         <v>58</v>
       </c>
       <c r="C74" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D74">
         <v>58</v>
@@ -2170,7 +3024,7 @@
         <v>58412</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D75">
         <v>58412</v>
@@ -2185,7 +3039,7 @@
         <v>58412</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D76">
         <v>58412</v>
@@ -2200,7 +3054,7 @@
         <v>58412</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D77">
         <v>58412</v>
@@ -2215,7 +3069,7 @@
         <v>58412</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D78">
         <v>58412</v>
@@ -2230,7 +3084,7 @@
         <v>58424</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D79">
         <v>58424</v>
@@ -2245,7 +3099,7 @@
         <v>58424</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D80">
         <v>58424</v>
@@ -2260,7 +3114,7 @@
         <v>58424</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D81">
         <v>58424</v>
@@ -2275,7 +3129,7 @@
         <v>58424</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D82">
         <v>58424</v>
@@ -2290,7 +3144,7 @@
         <v>58424</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D83">
         <v>58424</v>
@@ -2305,7 +3159,7 @@
         <v>58424</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D84">
         <v>58424</v>
@@ -2320,7 +3174,7 @@
         <v>58412</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D85">
         <v>58412</v>
@@ -2335,7 +3189,7 @@
         <v>58412</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D86">
         <v>58412</v>
@@ -2350,7 +3204,7 @@
         <v>58412</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D87">
         <v>58412</v>
@@ -2365,7 +3219,7 @@
         <v>58412</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D88">
         <v>58412</v>
@@ -2380,7 +3234,7 @@
         <v>58412</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D89">
         <v>58412</v>
@@ -2395,7 +3249,7 @@
         <v>58412</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D90">
         <v>58412</v>
@@ -2410,7 +3264,7 @@
         <v>58412</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D91">
         <v>58412</v>
@@ -2425,7 +3279,7 @@
         <v>58412</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D92">
         <v>58412</v>
@@ -2440,7 +3294,7 @@
         <v>58412</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D93">
         <v>58412</v>
@@ -2455,7 +3309,7 @@
         <v>58412</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D94">
         <v>58412</v>
@@ -2470,7 +3324,7 @@
         <v>58412</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D95">
         <v>58412</v>
@@ -2485,7 +3339,7 @@
         <v>58414</v>
       </c>
       <c r="C96" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D96">
         <v>58414</v>
@@ -2500,7 +3354,7 @@
         <v>58414</v>
       </c>
       <c r="C97" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D97">
         <v>58414</v>
@@ -2515,7 +3369,7 @@
         <v>58424</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D98">
         <v>58424</v>
@@ -2530,7 +3384,7 @@
         <v>58424</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D99">
         <v>58424</v>
@@ -2545,7 +3399,7 @@
         <v>58424</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D100">
         <v>58424</v>
@@ -2560,7 +3414,7 @@
         <v>58424</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D101">
         <v>58424</v>
@@ -2575,7 +3429,7 @@
         <v>58424</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D102">
         <v>58424</v>
@@ -2590,7 +3444,7 @@
         <v>58424</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D103">
         <v>58424</v>
@@ -2605,7 +3459,7 @@
         <v>58416</v>
       </c>
       <c r="C104" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D104">
         <v>58416</v>
@@ -2620,7 +3474,7 @@
         <v>58412</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D105">
         <v>58412</v>
@@ -2635,7 +3489,7 @@
         <v>58412</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D106">
         <v>58412</v>
@@ -2650,7 +3504,7 @@
         <v>58412</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D107">
         <v>58412</v>
@@ -2665,7 +3519,7 @@
         <v>58412</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D108">
         <v>58412</v>
@@ -2680,7 +3534,7 @@
         <v>58424</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D109">
         <v>58424</v>
@@ -2695,7 +3549,7 @@
         <v>58424</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D110">
         <v>58424</v>
@@ -2710,7 +3564,7 @@
         <v>58424</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D111">
         <v>58424</v>
@@ -2725,7 +3579,7 @@
         <v>58414</v>
       </c>
       <c r="C112" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D112">
         <v>58414</v>
@@ -2740,7 +3594,7 @@
         <v>58416</v>
       </c>
       <c r="C113" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D113">
         <v>58416</v>
@@ -2755,7 +3609,7 @@
         <v>58416</v>
       </c>
       <c r="C114" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D114">
         <v>58416</v>
@@ -2770,7 +3624,7 @@
         <v>58416</v>
       </c>
       <c r="C115" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D115">
         <v>58416</v>
@@ -2785,7 +3639,7 @@
         <v>58416</v>
       </c>
       <c r="C116" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D116">
         <v>58416</v>
@@ -2800,7 +3654,7 @@
         <v>58416</v>
       </c>
       <c r="C117" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D117">
         <v>58416</v>
@@ -2815,7 +3669,7 @@
         <v>58416</v>
       </c>
       <c r="C118" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D118">
         <v>58416</v>
@@ -2830,7 +3684,7 @@
         <v>58416</v>
       </c>
       <c r="C119" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D119">
         <v>58416</v>
@@ -2845,7 +3699,7 @@
         <v>58426</v>
       </c>
       <c r="C120" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D120">
         <v>58426</v>
@@ -2860,7 +3714,7 @@
         <v>58414</v>
       </c>
       <c r="C121" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D121">
         <v>58414</v>
@@ -2875,7 +3729,7 @@
         <v>58414</v>
       </c>
       <c r="C122" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D122">
         <v>58414</v>
@@ -2890,7 +3744,7 @@
         <v>58416</v>
       </c>
       <c r="C123" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D123">
         <v>58416</v>
@@ -2905,7 +3759,7 @@
         <v>58416</v>
       </c>
       <c r="C124" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D124">
         <v>58416</v>
@@ -2920,7 +3774,7 @@
         <v>58412</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D125">
         <v>58412</v>
@@ -2935,7 +3789,7 @@
         <v>58412</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D126">
         <v>58412</v>
@@ -2950,7 +3804,7 @@
         <v>58414</v>
       </c>
       <c r="C127" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D127">
         <v>58414</v>
@@ -2965,7 +3819,7 @@
         <v>58414</v>
       </c>
       <c r="C128" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D128">
         <v>58414</v>
@@ -2980,7 +3834,7 @@
         <v>58414</v>
       </c>
       <c r="C129" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D129">
         <v>58414</v>
@@ -2995,7 +3849,7 @@
         <v>58424</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D130">
         <v>58424</v>
@@ -3010,7 +3864,7 @@
         <v>58424</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D131">
         <v>58424</v>
@@ -3025,7 +3879,7 @@
         <v>58424</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D132">
         <v>58424</v>
@@ -3040,7 +3894,7 @@
         <v>58424</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D133">
         <v>58424</v>
@@ -3055,7 +3909,7 @@
         <v>58412</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D134">
         <v>58412</v>
@@ -3070,7 +3924,7 @@
         <v>58412</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D135">
         <v>58412</v>
@@ -3085,7 +3939,7 @@
         <v>58412</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D136">
         <v>58412</v>
@@ -3100,7 +3954,7 @@
         <v>58412</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D137">
         <v>58412</v>
@@ -3115,7 +3969,7 @@
         <v>58412</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D138">
         <v>58412</v>
@@ -3130,7 +3984,7 @@
         <v>58412</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D139">
         <v>58412</v>
@@ -3145,7 +3999,7 @@
         <v>58412</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D140">
         <v>58412</v>
@@ -3160,7 +4014,7 @@
         <v>58414</v>
       </c>
       <c r="C141" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D141">
         <v>58414</v>
@@ -3175,7 +4029,7 @@
         <v>58414</v>
       </c>
       <c r="C142" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D142">
         <v>58414</v>
@@ -3190,7 +4044,7 @@
         <v>58412</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D143">
         <v>58412</v>
@@ -3205,7 +4059,7 @@
         <v>58412</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D144">
         <v>58412</v>
@@ -3220,7 +4074,7 @@
         <v>58412</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D145">
         <v>58412</v>
@@ -3235,7 +4089,7 @@
         <v>58426</v>
       </c>
       <c r="C146" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D146">
         <v>58426</v>
@@ -3250,7 +4104,7 @@
         <v>58424</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D147">
         <v>58424</v>
@@ -3265,7 +4119,7 @@
         <v>58416</v>
       </c>
       <c r="C148" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D148">
         <v>58416</v>
@@ -3280,7 +4134,7 @@
         <v>58424</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D149">
         <v>58424</v>
@@ -3295,7 +4149,7 @@
         <v>58416</v>
       </c>
       <c r="C150" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D150">
         <v>58416</v>
@@ -3310,7 +4164,7 @@
         <v>58424</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D151">
         <v>58424</v>
@@ -3325,7 +4179,7 @@
         <v>58424</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D152">
         <v>58424</v>
@@ -3340,7 +4194,7 @@
         <v>58416</v>
       </c>
       <c r="C153" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D153">
         <v>58416</v>
@@ -3355,7 +4209,7 @@
         <v>58412</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D154">
         <v>58412</v>
@@ -3370,7 +4224,7 @@
         <v>58424</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D155">
         <v>58424</v>
@@ -3385,7 +4239,7 @@
         <v>58424</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D156">
         <v>58424</v>
@@ -3400,7 +4254,7 @@
         <v>58412</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D157">
         <v>58412</v>
@@ -3415,7 +4269,7 @@
         <v>58412</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D158">
         <v>58412</v>
@@ -3430,7 +4284,7 @@
         <v>58412</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D159">
         <v>58412</v>
@@ -3445,7 +4299,7 @@
         <v>58424</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D160">
         <v>58424</v>
@@ -3460,7 +4314,7 @@
         <v>58424</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D161">
         <v>58424</v>
@@ -3475,7 +4329,7 @@
         <v>58414</v>
       </c>
       <c r="C162" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D162">
         <v>58414</v>
@@ -3490,7 +4344,7 @@
         <v>58424</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D163">
         <v>58424</v>
@@ -3505,7 +4359,7 @@
         <v>58414</v>
       </c>
       <c r="C164" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D164">
         <v>58414</v>
@@ -3520,7 +4374,7 @@
         <v>58414</v>
       </c>
       <c r="C165" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D165">
         <v>58414</v>
@@ -3535,7 +4389,7 @@
         <v>58424</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D166">
         <v>58424</v>
@@ -3550,7 +4404,7 @@
         <v>58412</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D167">
         <v>58412</v>
@@ -3565,7 +4419,7 @@
         <v>58412</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D168">
         <v>58412</v>
@@ -3580,7 +4434,7 @@
         <v>58412</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D169">
         <v>58412</v>
@@ -3595,7 +4449,7 @@
         <v>58414</v>
       </c>
       <c r="C170" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D170">
         <v>58414</v>
@@ -3610,7 +4464,7 @@
         <v>58412</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D171">
         <v>58412</v>
@@ -3625,7 +4479,7 @@
         <v>58412</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D172">
         <v>58412</v>
@@ -3640,7 +4494,7 @@
         <v>58412</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D173">
         <v>58412</v>
@@ -3655,7 +4509,7 @@
         <v>58412</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D174">
         <v>58412</v>
@@ -3670,7 +4524,7 @@
         <v>58412</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D175">
         <v>58412</v>
@@ -3685,7 +4539,7 @@
         <v>58412</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D176">
         <v>58412</v>
@@ -3700,7 +4554,7 @@
         <v>58412</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D177">
         <v>58412</v>
@@ -3715,7 +4569,7 @@
         <v>58412</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D178">
         <v>58412</v>
@@ -3730,7 +4584,7 @@
         <v>58414</v>
       </c>
       <c r="C179" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D179">
         <v>58414</v>
@@ -3745,7 +4599,7 @@
         <v>58412</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D180">
         <v>58412</v>
@@ -3760,7 +4614,7 @@
         <v>58412</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D181">
         <v>58412</v>
@@ -3775,7 +4629,7 @@
         <v>58412</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D182">
         <v>58412</v>
@@ -3790,7 +4644,7 @@
         <v>58424</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D183">
         <v>58424</v>
@@ -3805,7 +4659,7 @@
         <v>58424</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D184">
         <v>58424</v>
@@ -3820,7 +4674,7 @@
         <v>58424</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D185">
         <v>58424</v>
@@ -3835,7 +4689,7 @@
         <v>58412</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D186">
         <v>58412</v>
@@ -3850,7 +4704,7 @@
         <v>58412</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D187">
         <v>58412</v>
@@ -3865,7 +4719,7 @@
         <v>58424</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D188">
         <v>58424</v>
@@ -3880,7 +4734,7 @@
         <v>58424</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D189">
         <v>58424</v>
@@ -3895,7 +4749,7 @@
         <v>58424</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D190">
         <v>58424</v>
@@ -3910,7 +4764,7 @@
         <v>58424</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D191">
         <v>58424</v>
@@ -3925,7 +4779,7 @@
         <v>58416</v>
       </c>
       <c r="C192" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D192">
         <v>58416</v>
@@ -3940,7 +4794,7 @@
         <v>58414</v>
       </c>
       <c r="C193" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D193">
         <v>58414</v>
@@ -3955,7 +4809,7 @@
         <v>58414</v>
       </c>
       <c r="C194" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D194">
         <v>58414</v>
@@ -3970,7 +4824,7 @@
         <v>58414</v>
       </c>
       <c r="C195" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D195">
         <v>58414</v>
@@ -3985,7 +4839,7 @@
         <v>58414</v>
       </c>
       <c r="C196" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D196">
         <v>58414</v>
@@ -4000,7 +4854,7 @@
         <v>58412</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D197">
         <v>58412</v>
@@ -4015,7 +4869,7 @@
         <v>58412</v>
       </c>
       <c r="C198" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D198">
         <v>58412</v>
@@ -4030,7 +4884,7 @@
         <v>58412</v>
       </c>
       <c r="C199" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D199">
         <v>58412</v>
@@ -4045,7 +4899,7 @@
         <v>58412</v>
       </c>
       <c r="C200" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D200">
         <v>58412</v>
@@ -4060,7 +4914,7 @@
         <v>58412</v>
       </c>
       <c r="C201" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D201">
         <v>58412</v>
@@ -4075,7 +4929,7 @@
         <v>58416</v>
       </c>
       <c r="C202" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D202">
         <v>58416</v>
@@ -4090,7 +4944,7 @@
         <v>58416</v>
       </c>
       <c r="C203" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D203">
         <v>58416</v>
@@ -4105,7 +4959,7 @@
         <v>58412</v>
       </c>
       <c r="C204" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D204">
         <v>58412</v>
@@ -4120,7 +4974,7 @@
         <v>58416</v>
       </c>
       <c r="C205" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D205">
         <v>58416</v>
@@ -4135,7 +4989,7 @@
         <v>58426</v>
       </c>
       <c r="C206" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D206">
         <v>58426</v>
@@ -4150,7 +5004,7 @@
         <v>58426</v>
       </c>
       <c r="C207" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D207">
         <v>58426</v>
@@ -4165,7 +5019,7 @@
         <v>58424</v>
       </c>
       <c r="C208" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D208">
         <v>58424</v>
@@ -4180,7 +5034,7 @@
         <v>58424</v>
       </c>
       <c r="C209" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D209">
         <v>58424</v>
@@ -4195,7 +5049,7 @@
         <v>58424</v>
       </c>
       <c r="C210" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D210">
         <v>58424</v>
@@ -4210,7 +5064,7 @@
         <v>58412</v>
       </c>
       <c r="C211" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D211">
         <v>58412</v>
@@ -4225,7 +5079,7 @@
         <v>58412</v>
       </c>
       <c r="C212" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D212">
         <v>58412</v>
@@ -4240,7 +5094,7 @@
         <v>58414</v>
       </c>
       <c r="C213" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D213">
         <v>58414</v>
@@ -4255,7 +5109,7 @@
         <v>58414</v>
       </c>
       <c r="C214" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D214">
         <v>58414</v>
@@ -4270,7 +5124,7 @@
         <v>58412</v>
       </c>
       <c r="C215" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D215">
         <v>58412</v>
@@ -4285,7 +5139,7 @@
         <v>58412</v>
       </c>
       <c r="C216" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D216">
         <v>58412</v>
@@ -4300,7 +5154,7 @@
         <v>58412</v>
       </c>
       <c r="C217" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D217">
         <v>58412</v>
@@ -4315,7 +5169,7 @@
         <v>58412</v>
       </c>
       <c r="C218" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D218">
         <v>58412</v>
@@ -4330,7 +5184,7 @@
         <v>58412</v>
       </c>
       <c r="C219" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D219">
         <v>58412</v>
@@ -4345,7 +5199,7 @@
         <v>58412</v>
       </c>
       <c r="C220" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D220">
         <v>58412</v>
@@ -4360,7 +5214,7 @@
         <v>58412</v>
       </c>
       <c r="C221" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D221">
         <v>58412</v>
@@ -4375,7 +5229,7 @@
         <v>58412</v>
       </c>
       <c r="C222" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D222">
         <v>58412</v>
@@ -4390,7 +5244,7 @@
         <v>58412</v>
       </c>
       <c r="C223" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D223">
         <v>58412</v>
@@ -4405,7 +5259,7 @@
         <v>58412</v>
       </c>
       <c r="C224" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D224">
         <v>58412</v>
@@ -4420,7 +5274,7 @@
         <v>58424</v>
       </c>
       <c r="C225" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D225">
         <v>58424</v>
@@ -4435,7 +5289,7 @@
         <v>58424</v>
       </c>
       <c r="C226" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D226">
         <v>58424</v>
@@ -4450,7 +5304,7 @@
         <v>58424</v>
       </c>
       <c r="C227" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D227">
         <v>58424</v>
@@ -4465,7 +5319,7 @@
         <v>58412</v>
       </c>
       <c r="C228" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D228">
         <v>58412</v>
@@ -4480,7 +5334,7 @@
         <v>58412</v>
       </c>
       <c r="C229" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D229">
         <v>58412</v>
@@ -4495,7 +5349,7 @@
         <v>58412</v>
       </c>
       <c r="C230" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D230">
         <v>58412</v>
@@ -4510,7 +5364,7 @@
         <v>58412</v>
       </c>
       <c r="C231" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D231">
         <v>58412</v>
@@ -4525,7 +5379,7 @@
         <v>58412</v>
       </c>
       <c r="C232" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D232">
         <v>58412</v>
@@ -4540,7 +5394,7 @@
         <v>58412</v>
       </c>
       <c r="C233" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D233">
         <v>58412</v>
@@ -4555,7 +5409,7 @@
         <v>58412</v>
       </c>
       <c r="C234" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D234">
         <v>58412</v>
@@ -4570,7 +5424,7 @@
         <v>58412</v>
       </c>
       <c r="C235" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D235">
         <v>58412</v>
@@ -4585,7 +5439,7 @@
         <v>58412</v>
       </c>
       <c r="C236" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D236">
         <v>58412</v>
@@ -4600,7 +5454,7 @@
         <v>58</v>
       </c>
       <c r="C237" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D237">
         <v>58</v>
@@ -4615,7 +5469,7 @@
         <v>58</v>
       </c>
       <c r="C238" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D238">
         <v>58</v>
@@ -4630,7 +5484,7 @@
         <v>58412</v>
       </c>
       <c r="C239" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D239">
         <v>58412</v>
@@ -4645,7 +5499,7 @@
         <v>58412</v>
       </c>
       <c r="C240" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D240">
         <v>58412</v>
@@ -4660,7 +5514,7 @@
         <v>58412</v>
       </c>
       <c r="C241" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D241">
         <v>58412</v>
@@ -4675,7 +5529,7 @@
         <v>58412</v>
       </c>
       <c r="C242" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D242">
         <v>58412</v>
@@ -4690,7 +5544,7 @@
         <v>58412</v>
       </c>
       <c r="C243" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D243">
         <v>58412</v>
@@ -4705,7 +5559,7 @@
         <v>58412</v>
       </c>
       <c r="C244" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D244">
         <v>58412</v>
@@ -4720,7 +5574,7 @@
         <v>58416</v>
       </c>
       <c r="C245" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D245">
         <v>58416</v>
@@ -4735,7 +5589,7 @@
         <v>58416</v>
       </c>
       <c r="C246" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D246">
         <v>58416</v>
@@ -4750,7 +5604,7 @@
         <v>58416</v>
       </c>
       <c r="C247" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D247">
         <v>58416</v>
@@ -4765,7 +5619,7 @@
         <v>58426</v>
       </c>
       <c r="C248" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D248">
         <v>58426</v>
@@ -4780,7 +5634,7 @@
         <v>58426</v>
       </c>
       <c r="C249" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D249">
         <v>58426</v>
@@ -4795,7 +5649,7 @@
         <v>58426</v>
       </c>
       <c r="C250" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D250">
         <v>58426</v>
@@ -4810,7 +5664,7 @@
         <v>58412</v>
       </c>
       <c r="C251" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D251">
         <v>58412</v>
@@ -4825,7 +5679,7 @@
         <v>58412</v>
       </c>
       <c r="C252" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D252">
         <v>58412</v>
@@ -4840,7 +5694,7 @@
         <v>58426</v>
       </c>
       <c r="C253" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D253">
         <v>58426</v>
@@ -4855,7 +5709,7 @@
         <v>58426</v>
       </c>
       <c r="C254" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D254">
         <v>58426</v>
@@ -4870,7 +5724,7 @@
         <v>58412</v>
       </c>
       <c r="C255" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D255">
         <v>58412</v>
@@ -4885,7 +5739,7 @@
         <v>58426</v>
       </c>
       <c r="C256" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D256">
         <v>58426</v>
@@ -4900,7 +5754,7 @@
         <v>58412</v>
       </c>
       <c r="C257" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D257">
         <v>58412</v>
@@ -4915,7 +5769,7 @@
         <v>58414</v>
       </c>
       <c r="C258" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D258">
         <v>58414</v>
@@ -4930,7 +5784,7 @@
         <v>58424</v>
       </c>
       <c r="C259" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D259">
         <v>58424</v>
@@ -4945,7 +5799,7 @@
         <v>58414</v>
       </c>
       <c r="C260" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D260">
         <v>58414</v>
@@ -4960,7 +5814,7 @@
         <v>58414</v>
       </c>
       <c r="C261" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D261">
         <v>58414</v>
@@ -4975,7 +5829,7 @@
         <v>58414</v>
       </c>
       <c r="C262" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D262">
         <v>58414</v>
@@ -4990,7 +5844,7 @@
         <v>58414</v>
       </c>
       <c r="C263" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D263">
         <v>58414</v>
@@ -5005,7 +5859,7 @@
         <v>58414</v>
       </c>
       <c r="C264" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D264">
         <v>58414</v>
@@ -5020,7 +5874,7 @@
         <v>58414</v>
       </c>
       <c r="C265" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D265">
         <v>58414</v>
@@ -5035,7 +5889,7 @@
         <v>58424</v>
       </c>
       <c r="C266" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D266">
         <v>58424</v>
@@ -5050,7 +5904,7 @@
         <v>58412</v>
       </c>
       <c r="C267" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D267">
         <v>58412</v>
@@ -5065,7 +5919,7 @@
         <v>58424</v>
       </c>
       <c r="C268" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D268">
         <v>58424</v>
@@ -5080,7 +5934,7 @@
         <v>58414</v>
       </c>
       <c r="C269" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D269">
         <v>58414</v>
@@ -5095,7 +5949,7 @@
         <v>58424</v>
       </c>
       <c r="C270" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D270">
         <v>58424</v>
@@ -5110,7 +5964,7 @@
         <v>58424</v>
       </c>
       <c r="C271" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D271">
         <v>58424</v>
@@ -5125,7 +5979,7 @@
         <v>58412</v>
       </c>
       <c r="C272" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D272">
         <v>58412</v>
@@ -5140,7 +5994,7 @@
         <v>58424</v>
       </c>
       <c r="C273" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D273">
         <v>58424</v>
@@ -5155,7 +6009,7 @@
         <v>58426</v>
       </c>
       <c r="C274" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D274">
         <v>58426</v>
@@ -5170,7 +6024,7 @@
         <v>58426</v>
       </c>
       <c r="C275" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D275">
         <v>58426</v>
@@ -5185,7 +6039,7 @@
         <v>58412</v>
       </c>
       <c r="C276" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D276">
         <v>58412</v>
@@ -5200,7 +6054,7 @@
         <v>58412</v>
       </c>
       <c r="C277" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D277">
         <v>58412</v>
@@ -5215,7 +6069,7 @@
         <v>58412</v>
       </c>
       <c r="C278" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D278">
         <v>58412</v>
@@ -5230,7 +6084,7 @@
         <v>58412</v>
       </c>
       <c r="C279" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D279">
         <v>58412</v>
@@ -5245,7 +6099,7 @@
         <v>58412</v>
       </c>
       <c r="C280" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D280">
         <v>58412</v>
@@ -5260,7 +6114,7 @@
         <v>58426</v>
       </c>
       <c r="C281" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D281">
         <v>58426</v>
@@ -5275,7 +6129,7 @@
         <v>58416</v>
       </c>
       <c r="C282" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D282">
         <v>58416</v>
@@ -5290,7 +6144,7 @@
         <v>58416</v>
       </c>
       <c r="C283" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D283">
         <v>58416</v>
@@ -5305,7 +6159,7 @@
         <v>58416</v>
       </c>
       <c r="C284" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D284">
         <v>58416</v>
@@ -5320,7 +6174,7 @@
         <v>58426</v>
       </c>
       <c r="C285" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D285">
         <v>58426</v>
@@ -5335,7 +6189,7 @@
         <v>58426</v>
       </c>
       <c r="C286" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D286">
         <v>58426</v>
@@ -5350,7 +6204,7 @@
         <v>58412</v>
       </c>
       <c r="C287" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D287">
         <v>58412</v>
@@ -5365,7 +6219,7 @@
         <v>58412</v>
       </c>
       <c r="C288" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D288">
         <v>58412</v>
@@ -5380,7 +6234,7 @@
         <v>58412</v>
       </c>
       <c r="C289" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D289">
         <v>58412</v>
@@ -5395,7 +6249,7 @@
         <v>58414</v>
       </c>
       <c r="C290" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D290">
         <v>58414</v>
@@ -5410,7 +6264,7 @@
         <v>58412</v>
       </c>
       <c r="C291" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D291">
         <v>58412</v>
@@ -5425,7 +6279,7 @@
         <v>58412</v>
       </c>
       <c r="C292" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D292">
         <v>58412</v>
@@ -5440,7 +6294,7 @@
         <v>58412</v>
       </c>
       <c r="C293" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D293">
         <v>58412</v>
@@ -5455,7 +6309,7 @@
         <v>58416</v>
       </c>
       <c r="C294" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D294">
         <v>58416</v>
@@ -5470,7 +6324,7 @@
         <v>58416</v>
       </c>
       <c r="C295" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D295">
         <v>58416</v>
@@ -5485,7 +6339,7 @@
         <v>58412</v>
       </c>
       <c r="C296" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D296">
         <v>58412</v>
@@ -5500,7 +6354,7 @@
         <v>58412</v>
       </c>
       <c r="C297" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D297">
         <v>58412</v>
@@ -5515,7 +6369,7 @@
         <v>58412</v>
       </c>
       <c r="C298" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D298">
         <v>58412</v>
@@ -5530,7 +6384,7 @@
         <v>58414</v>
       </c>
       <c r="C299" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D299">
         <v>58414</v>
@@ -5545,7 +6399,7 @@
         <v>58414</v>
       </c>
       <c r="C300" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D300">
         <v>58414</v>
@@ -5560,7 +6414,7 @@
         <v>58414</v>
       </c>
       <c r="C301" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D301">
         <v>58414</v>
@@ -5575,7 +6429,7 @@
         <v>58424</v>
       </c>
       <c r="C302" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D302">
         <v>58424</v>
@@ -5590,7 +6444,7 @@
         <v>58424</v>
       </c>
       <c r="C303" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D303">
         <v>58424</v>
@@ -5605,7 +6459,7 @@
         <v>58424</v>
       </c>
       <c r="C304" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D304">
         <v>58424</v>
@@ -5620,7 +6474,7 @@
         <v>58424</v>
       </c>
       <c r="C305" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D305">
         <v>58424</v>
@@ -5635,7 +6489,7 @@
         <v>58424</v>
       </c>
       <c r="C306" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D306">
         <v>58424</v>
@@ -5650,7 +6504,7 @@
         <v>58424</v>
       </c>
       <c r="C307" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D307">
         <v>58424</v>
@@ -5665,7 +6519,7 @@
         <v>58424</v>
       </c>
       <c r="C308" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D308">
         <v>58424</v>
@@ -5680,7 +6534,7 @@
         <v>58414</v>
       </c>
       <c r="C309" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D309">
         <v>58414</v>
@@ -5695,7 +6549,7 @@
         <v>58414</v>
       </c>
       <c r="C310" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D310">
         <v>58414</v>
@@ -5710,7 +6564,7 @@
         <v>58424</v>
       </c>
       <c r="C311" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D311">
         <v>58424</v>
@@ -5725,7 +6579,7 @@
         <v>58412</v>
       </c>
       <c r="C312" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D312">
         <v>58412</v>
@@ -5740,7 +6594,7 @@
         <v>58426</v>
       </c>
       <c r="C313" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D313">
         <v>58426</v>
@@ -5755,7 +6609,7 @@
         <v>58426</v>
       </c>
       <c r="C314" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D314">
         <v>58426</v>
@@ -5770,7 +6624,7 @@
         <v>58424</v>
       </c>
       <c r="C315" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D315">
         <v>58424</v>
@@ -5785,7 +6639,7 @@
         <v>58424</v>
       </c>
       <c r="C316" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D316">
         <v>58424</v>
@@ -5800,7 +6654,7 @@
         <v>58412</v>
       </c>
       <c r="C317" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D317">
         <v>58412</v>
@@ -5815,7 +6669,7 @@
         <v>58412</v>
       </c>
       <c r="C318" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D318">
         <v>58412</v>
@@ -5830,7 +6684,7 @@
         <v>58412</v>
       </c>
       <c r="C319" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D319">
         <v>58412</v>
@@ -5845,7 +6699,7 @@
         <v>58412</v>
       </c>
       <c r="C320" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D320">
         <v>58412</v>
@@ -5860,7 +6714,7 @@
         <v>58412</v>
       </c>
       <c r="C321" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D321">
         <v>58412</v>
@@ -5875,7 +6729,7 @@
         <v>58412</v>
       </c>
       <c r="C322" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D322">
         <v>58412</v>
@@ -5890,7 +6744,7 @@
         <v>58412</v>
       </c>
       <c r="C323" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D323">
         <v>58412</v>
@@ -5905,7 +6759,7 @@
         <v>58412</v>
       </c>
       <c r="C324" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D324">
         <v>58412</v>
@@ -5920,7 +6774,7 @@
         <v>58412</v>
       </c>
       <c r="C325" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D325">
         <v>58412</v>
@@ -5935,7 +6789,7 @@
         <v>58412</v>
       </c>
       <c r="C326" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D326">
         <v>58412</v>
@@ -5950,7 +6804,7 @@
         <v>58412</v>
       </c>
       <c r="C327" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D327">
         <v>58412</v>
@@ -5965,7 +6819,7 @@
         <v>58412</v>
       </c>
       <c r="C328" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D328">
         <v>58412</v>
@@ -5980,7 +6834,7 @@
         <v>58412</v>
       </c>
       <c r="C329" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D329">
         <v>58412</v>
@@ -5995,7 +6849,7 @@
         <v>58412</v>
       </c>
       <c r="C330" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D330">
         <v>58412</v>
@@ -6010,7 +6864,7 @@
         <v>58412</v>
       </c>
       <c r="C331" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D331">
         <v>58412</v>
@@ -6025,7 +6879,7 @@
         <v>58412</v>
       </c>
       <c r="C332" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D332">
         <v>58412</v>
@@ -6040,7 +6894,7 @@
         <v>58412</v>
       </c>
       <c r="C333" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D333">
         <v>58412</v>
@@ -6055,7 +6909,7 @@
         <v>58414</v>
       </c>
       <c r="C334" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D334">
         <v>58414</v>
@@ -6070,7 +6924,7 @@
         <v>58414</v>
       </c>
       <c r="C335" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D335">
         <v>58414</v>
@@ -6085,7 +6939,7 @@
         <v>58412</v>
       </c>
       <c r="C336" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D336">
         <v>58412</v>
@@ -6100,7 +6954,7 @@
         <v>58412</v>
       </c>
       <c r="C337" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D337">
         <v>58412</v>
@@ -6115,7 +6969,7 @@
         <v>58412</v>
       </c>
       <c r="C338" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D338">
         <v>58412</v>
@@ -6130,7 +6984,7 @@
         <v>58426</v>
       </c>
       <c r="C339" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D339">
         <v>58426</v>
@@ -6145,7 +6999,7 @@
         <v>58426</v>
       </c>
       <c r="C340" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D340">
         <v>58426</v>
@@ -6160,7 +7014,7 @@
         <v>58412</v>
       </c>
       <c r="C341" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D341">
         <v>58412</v>
@@ -6175,7 +7029,7 @@
         <v>58412</v>
       </c>
       <c r="C342" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D342">
         <v>58412</v>
@@ -6190,7 +7044,7 @@
         <v>58424</v>
       </c>
       <c r="C343" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D343">
         <v>58424</v>
@@ -6205,7 +7059,7 @@
         <v>58414</v>
       </c>
       <c r="C344" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D344">
         <v>58414</v>
@@ -6220,7 +7074,7 @@
         <v>58414</v>
       </c>
       <c r="C345" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D345">
         <v>58414</v>
@@ -6235,7 +7089,7 @@
         <v>58424</v>
       </c>
       <c r="C346" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D346">
         <v>58424</v>
@@ -6250,7 +7104,7 @@
         <v>58414</v>
       </c>
       <c r="C347" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D347">
         <v>58414</v>
@@ -6265,7 +7119,7 @@
         <v>58424</v>
       </c>
       <c r="C348" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D348">
         <v>58424</v>
@@ -6280,7 +7134,7 @@
         <v>58424</v>
       </c>
       <c r="C349" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D349">
         <v>58424</v>
@@ -6295,7 +7149,7 @@
         <v>58424</v>
       </c>
       <c r="C350" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D350">
         <v>58424</v>
@@ -6310,7 +7164,7 @@
         <v>58424</v>
       </c>
       <c r="C351" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D351">
         <v>58424</v>
@@ -6325,7 +7179,7 @@
         <v>58424</v>
       </c>
       <c r="C352" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D352">
         <v>58424</v>
@@ -6340,7 +7194,7 @@
         <v>58412</v>
       </c>
       <c r="C353" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D353">
         <v>58412</v>
@@ -6355,7 +7209,7 @@
         <v>58424</v>
       </c>
       <c r="C354" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D354">
         <v>58424</v>
@@ -6370,7 +7224,7 @@
         <v>58424</v>
       </c>
       <c r="C355" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D355">
         <v>58424</v>
@@ -6385,7 +7239,7 @@
         <v>58424</v>
       </c>
       <c r="C356" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D356">
         <v>58424</v>
@@ -6400,7 +7254,7 @@
         <v>58424</v>
       </c>
       <c r="C357" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D357">
         <v>58424</v>
@@ -6415,7 +7269,7 @@
         <v>58414</v>
       </c>
       <c r="C358" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D358">
         <v>58414</v>
@@ -6430,7 +7284,7 @@
         <v>58414</v>
       </c>
       <c r="C359" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D359">
         <v>58414</v>
@@ -6445,7 +7299,7 @@
         <v>58414</v>
       </c>
       <c r="C360" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D360">
         <v>58414</v>
@@ -6460,7 +7314,7 @@
         <v>58412</v>
       </c>
       <c r="C361" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D361">
         <v>58412</v>
@@ -6475,7 +7329,7 @@
         <v>58426</v>
       </c>
       <c r="C362" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D362">
         <v>58426</v>
@@ -6490,7 +7344,7 @@
         <v>58426</v>
       </c>
       <c r="C363" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D363">
         <v>58426</v>
@@ -6505,7 +7359,7 @@
         <v>58412</v>
       </c>
       <c r="C364" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D364">
         <v>58412</v>
@@ -6520,7 +7374,7 @@
         <v>58426</v>
       </c>
       <c r="C365" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D365">
         <v>58426</v>
@@ -6535,7 +7389,7 @@
         <v>58426</v>
       </c>
       <c r="C366" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D366">
         <v>58426</v>
@@ -6550,7 +7404,7 @@
         <v>58416</v>
       </c>
       <c r="C367" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D367">
         <v>58416</v>
@@ -6565,7 +7419,7 @@
         <v>58416</v>
       </c>
       <c r="C368" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D368">
         <v>58416</v>
@@ -6580,7 +7434,7 @@
         <v>58414</v>
       </c>
       <c r="C369" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D369">
         <v>58414</v>
@@ -6595,7 +7449,7 @@
         <v>58414</v>
       </c>
       <c r="C370" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D370">
         <v>58414</v>
@@ -6610,7 +7464,7 @@
         <v>58414</v>
       </c>
       <c r="C371" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D371">
         <v>58414</v>
@@ -6625,7 +7479,7 @@
         <v>58412</v>
       </c>
       <c r="C372" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D372">
         <v>58412</v>
@@ -6640,7 +7494,7 @@
         <v>58412</v>
       </c>
       <c r="C373" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D373">
         <v>58412</v>
@@ -6655,7 +7509,7 @@
         <v>58412</v>
       </c>
       <c r="C374" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D374">
         <v>58412</v>
@@ -6670,7 +7524,7 @@
         <v>58412</v>
       </c>
       <c r="C375" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D375">
         <v>58412</v>
@@ -6685,7 +7539,7 @@
         <v>58424</v>
       </c>
       <c r="C376" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D376">
         <v>58424</v>
@@ -6700,7 +7554,7 @@
         <v>58424</v>
       </c>
       <c r="C377" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D377">
         <v>58424</v>
@@ -6715,7 +7569,7 @@
         <v>58414</v>
       </c>
       <c r="C378" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D378">
         <v>58414</v>
@@ -6730,7 +7584,7 @@
         <v>58414</v>
       </c>
       <c r="C379" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D379">
         <v>58414</v>
@@ -6745,7 +7599,7 @@
         <v>58414</v>
       </c>
       <c r="C380" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D380">
         <v>58414</v>
@@ -6760,7 +7614,7 @@
         <v>58426</v>
       </c>
       <c r="C381" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D381">
         <v>58426</v>
@@ -6775,7 +7629,7 @@
         <v>58426</v>
       </c>
       <c r="C382" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D382">
         <v>58426</v>
@@ -6790,7 +7644,7 @@
         <v>58424</v>
       </c>
       <c r="C383" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D383">
         <v>58424</v>
@@ -6805,7 +7659,7 @@
         <v>58412</v>
       </c>
       <c r="C384" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D384">
         <v>58412</v>
@@ -6820,7 +7674,7 @@
         <v>58412</v>
       </c>
       <c r="C385" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D385">
         <v>58412</v>
@@ -6835,7 +7689,7 @@
         <v>58416</v>
       </c>
       <c r="C386" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D386">
         <v>58416</v>
@@ -6850,7 +7704,7 @@
         <v>58416</v>
       </c>
       <c r="C387" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D387">
         <v>58416</v>
@@ -6865,7 +7719,7 @@
         <v>58412</v>
       </c>
       <c r="C388" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D388">
         <v>58412</v>
@@ -6880,7 +7734,7 @@
         <v>58412</v>
       </c>
       <c r="C389" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D389">
         <v>58412</v>
@@ -6895,7 +7749,7 @@
         <v>58414</v>
       </c>
       <c r="C390" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D390">
         <v>58414</v>
@@ -6910,7 +7764,7 @@
         <v>58412</v>
       </c>
       <c r="C391" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D391">
         <v>58412</v>
@@ -6925,7 +7779,7 @@
         <v>58412</v>
       </c>
       <c r="C392" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D392">
         <v>58412</v>
@@ -6940,7 +7794,7 @@
         <v>58414</v>
       </c>
       <c r="C393" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D393">
         <v>58414</v>
@@ -6955,7 +7809,7 @@
         <v>58414</v>
       </c>
       <c r="C394" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D394">
         <v>58414</v>
@@ -6970,7 +7824,7 @@
         <v>58416</v>
       </c>
       <c r="C395" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D395">
         <v>58416</v>
@@ -6985,7 +7839,7 @@
         <v>58416</v>
       </c>
       <c r="C396" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D396">
         <v>58416</v>
@@ -7000,7 +7854,7 @@
         <v>58424</v>
       </c>
       <c r="C397" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D397">
         <v>58424</v>
@@ -7015,7 +7869,7 @@
         <v>58412</v>
       </c>
       <c r="C398" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D398">
         <v>58412</v>
@@ -7030,7 +7884,7 @@
         <v>58412</v>
       </c>
       <c r="C399" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D399">
         <v>58412</v>
@@ -7045,7 +7899,7 @@
         <v>58412</v>
       </c>
       <c r="C400" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D400">
         <v>58412</v>
@@ -7060,7 +7914,7 @@
         <v>58412</v>
       </c>
       <c r="C401" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D401">
         <v>58412</v>
@@ -7075,7 +7929,7 @@
         <v>58412</v>
       </c>
       <c r="C402" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D402">
         <v>58412</v>
@@ -7090,7 +7944,7 @@
         <v>58412</v>
       </c>
       <c r="C403" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D403">
         <v>58412</v>
@@ -7105,7 +7959,7 @@
         <v>58412</v>
       </c>
       <c r="C404" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D404">
         <v>58412</v>
@@ -7120,7 +7974,7 @@
         <v>58414</v>
       </c>
       <c r="C405" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D405">
         <v>58414</v>
@@ -7135,7 +7989,7 @@
         <v>58414</v>
       </c>
       <c r="C406" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D406">
         <v>58414</v>
@@ -7150,7 +8004,7 @@
         <v>58412</v>
       </c>
       <c r="C407" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D407">
         <v>58412</v>
@@ -7165,7 +8019,7 @@
         <v>58416</v>
       </c>
       <c r="C408" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D408">
         <v>58416</v>
@@ -7180,7 +8034,7 @@
         <v>58416</v>
       </c>
       <c r="C409" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D409">
         <v>58416</v>
@@ -7195,7 +8049,7 @@
         <v>58412</v>
       </c>
       <c r="C410" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D410">
         <v>58412</v>
@@ -7210,7 +8064,7 @@
         <v>58412</v>
       </c>
       <c r="C411" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D411">
         <v>58412</v>
@@ -7225,7 +8079,7 @@
         <v>58414</v>
       </c>
       <c r="C412" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D412">
         <v>58414</v>
@@ -7240,7 +8094,7 @@
         <v>58414</v>
       </c>
       <c r="C413" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D413">
         <v>58414</v>
@@ -7255,7 +8109,7 @@
         <v>58412</v>
       </c>
       <c r="C414" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D414">
         <v>58412</v>
@@ -7270,7 +8124,7 @@
         <v>58416</v>
       </c>
       <c r="C415" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D415">
         <v>58416</v>
@@ -7285,7 +8139,7 @@
         <v>58416</v>
       </c>
       <c r="C416" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D416">
         <v>58416</v>
@@ -7300,7 +8154,7 @@
         <v>58424</v>
       </c>
       <c r="C417" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D417">
         <v>58424</v>
@@ -7315,7 +8169,7 @@
         <v>58424</v>
       </c>
       <c r="C418" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D418">
         <v>58424</v>
@@ -7330,7 +8184,7 @@
         <v>58414</v>
       </c>
       <c r="C419" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D419">
         <v>58414</v>
@@ -7345,7 +8199,7 @@
         <v>58414</v>
       </c>
       <c r="C420" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D420">
         <v>58414</v>
@@ -7360,7 +8214,7 @@
         <v>58412</v>
       </c>
       <c r="C421" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D421">
         <v>58412</v>
@@ -7375,7 +8229,7 @@
         <v>58412</v>
       </c>
       <c r="C422" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D422">
         <v>58412</v>
@@ -7390,7 +8244,7 @@
         <v>58414</v>
       </c>
       <c r="C423" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D423">
         <v>58414</v>
@@ -7405,7 +8259,7 @@
         <v>58412</v>
       </c>
       <c r="C424" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D424">
         <v>58412</v>
@@ -7420,7 +8274,7 @@
         <v>58412</v>
       </c>
       <c r="C425" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D425">
         <v>58412</v>
@@ -7435,7 +8289,7 @@
         <v>58412</v>
       </c>
       <c r="C426" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D426">
         <v>58412</v>
@@ -7450,7 +8304,7 @@
         <v>58412</v>
       </c>
       <c r="C427" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D427">
         <v>58412</v>
@@ -7465,7 +8319,7 @@
         <v>58424</v>
       </c>
       <c r="C428" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D428">
         <v>58424</v>
@@ -7480,7 +8334,7 @@
         <v>58412</v>
       </c>
       <c r="C429" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D429">
         <v>58412</v>
@@ -7495,7 +8349,7 @@
         <v>58412</v>
       </c>
       <c r="C430" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D430">
         <v>58412</v>
@@ -7510,7 +8364,7 @@
         <v>58412</v>
       </c>
       <c r="C431" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D431">
         <v>58412</v>
@@ -7525,7 +8379,7 @@
         <v>58414</v>
       </c>
       <c r="C432" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D432">
         <v>58414</v>
@@ -7540,7 +8394,7 @@
         <v>58414</v>
       </c>
       <c r="C433" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D433">
         <v>58414</v>
@@ -7555,7 +8409,7 @@
         <v>58424</v>
       </c>
       <c r="C434" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D434">
         <v>58424</v>
@@ -7570,7 +8424,7 @@
         <v>58424</v>
       </c>
       <c r="C435" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D435">
         <v>58424</v>
@@ -7585,7 +8439,7 @@
         <v>58414</v>
       </c>
       <c r="C436" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D436">
         <v>58414</v>
@@ -7600,7 +8454,7 @@
         <v>58414</v>
       </c>
       <c r="C437" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D437">
         <v>58414</v>
@@ -7615,7 +8469,7 @@
         <v>58424</v>
       </c>
       <c r="C438" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D438">
         <v>58424</v>
@@ -7630,7 +8484,7 @@
         <v>58424</v>
       </c>
       <c r="C439" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D439">
         <v>58424</v>
@@ -7645,7 +8499,7 @@
         <v>58424</v>
       </c>
       <c r="C440" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D440">
         <v>58424</v>
@@ -7660,7 +8514,7 @@
         <v>58424</v>
       </c>
       <c r="C441" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D441">
         <v>58424</v>
@@ -7675,7 +8529,7 @@
         <v>58414</v>
       </c>
       <c r="C442" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D442">
         <v>58414</v>
@@ -7690,7 +8544,7 @@
         <v>58412</v>
       </c>
       <c r="C443" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D443">
         <v>58412</v>
@@ -7705,7 +8559,7 @@
         <v>58412</v>
       </c>
       <c r="C444" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D444">
         <v>58412</v>
@@ -7720,7 +8574,7 @@
         <v>58414</v>
       </c>
       <c r="C445" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D445">
         <v>58414</v>
@@ -7735,7 +8589,7 @@
         <v>58414</v>
       </c>
       <c r="C446" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D446">
         <v>58414</v>
@@ -7750,7 +8604,7 @@
         <v>58414</v>
       </c>
       <c r="C447" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D447">
         <v>58414</v>
@@ -7765,7 +8619,7 @@
         <v>58424</v>
       </c>
       <c r="C448" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D448">
         <v>58424</v>
@@ -7780,7 +8634,7 @@
         <v>58424</v>
       </c>
       <c r="C449" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D449">
         <v>58424</v>
@@ -7795,7 +8649,7 @@
         <v>58412</v>
       </c>
       <c r="C450" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D450">
         <v>58412</v>
@@ -7810,7 +8664,7 @@
         <v>58412</v>
       </c>
       <c r="C451" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D451">
         <v>58412</v>
@@ -7825,7 +8679,7 @@
         <v>58424</v>
       </c>
       <c r="C452" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D452">
         <v>58424</v>
@@ -7840,7 +8694,7 @@
         <v>58424</v>
       </c>
       <c r="C453" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D453">
         <v>58424</v>
@@ -7855,7 +8709,7 @@
         <v>58424</v>
       </c>
       <c r="C454" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D454">
         <v>58424</v>
@@ -7870,7 +8724,7 @@
         <v>58426</v>
       </c>
       <c r="C455" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D455">
         <v>58426</v>
@@ -7885,7 +8739,7 @@
         <v>58426</v>
       </c>
       <c r="C456" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D456">
         <v>58426</v>
@@ -7900,7 +8754,7 @@
         <v>58414</v>
       </c>
       <c r="C457" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D457">
         <v>58414</v>
@@ -7915,7 +8769,7 @@
         <v>58414</v>
       </c>
       <c r="C458" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D458">
         <v>58414</v>
@@ -7930,7 +8784,7 @@
         <v>58414</v>
       </c>
       <c r="C459" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D459">
         <v>58414</v>
@@ -7945,7 +8799,7 @@
         <v>58412</v>
       </c>
       <c r="C460" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D460">
         <v>58412</v>
@@ -7960,7 +8814,7 @@
         <v>58424</v>
       </c>
       <c r="C461" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D461">
         <v>58424</v>
@@ -7975,7 +8829,7 @@
         <v>58424</v>
       </c>
       <c r="C462" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D462">
         <v>58424</v>
@@ -7990,7 +8844,7 @@
         <v>58424</v>
       </c>
       <c r="C463" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D463">
         <v>58424</v>
@@ -8005,7 +8859,7 @@
         <v>58414</v>
       </c>
       <c r="C464" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D464">
         <v>58414</v>
@@ -8020,7 +8874,7 @@
         <v>58414</v>
       </c>
       <c r="C465" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D465">
         <v>58414</v>
@@ -8035,7 +8889,7 @@
         <v>58426</v>
       </c>
       <c r="C466" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D466">
         <v>58426</v>
@@ -8050,7 +8904,7 @@
         <v>58426</v>
       </c>
       <c r="C467" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D467">
         <v>58426</v>
@@ -8065,7 +8919,7 @@
         <v>58416</v>
       </c>
       <c r="C468" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D468">
         <v>58416</v>
@@ -8080,7 +8934,7 @@
         <v>58416</v>
       </c>
       <c r="C469" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D469">
         <v>58416</v>
@@ -8095,7 +8949,7 @@
         <v>58416</v>
       </c>
       <c r="C470" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D470">
         <v>58416</v>
@@ -8110,7 +8964,7 @@
         <v>58412</v>
       </c>
       <c r="C471" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D471">
         <v>58412</v>
@@ -8125,7 +8979,7 @@
         <v>58424</v>
       </c>
       <c r="C472" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D472">
         <v>58424</v>
@@ -8140,7 +8994,7 @@
         <v>58424</v>
       </c>
       <c r="C473" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D473">
         <v>58424</v>
@@ -8155,7 +9009,7 @@
         <v>58424</v>
       </c>
       <c r="C474" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D474">
         <v>58424</v>
@@ -8170,7 +9024,7 @@
         <v>58412</v>
       </c>
       <c r="C475" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D475">
         <v>58412</v>
@@ -8185,7 +9039,7 @@
         <v>58412</v>
       </c>
       <c r="C476" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D476">
         <v>58412</v>
@@ -8200,7 +9054,7 @@
         <v>58412</v>
       </c>
       <c r="C477" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D477">
         <v>58412</v>
@@ -8215,7 +9069,7 @@
         <v>58412</v>
       </c>
       <c r="C478" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D478">
         <v>58412</v>
@@ -8230,7 +9084,7 @@
         <v>58</v>
       </c>
       <c r="C479" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D479">
         <v>58</v>
@@ -8245,7 +9099,7 @@
         <v>58412</v>
       </c>
       <c r="C480" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D480">
         <v>58412</v>
@@ -8260,7 +9114,7 @@
         <v>58412</v>
       </c>
       <c r="C481" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D481">
         <v>58412</v>
@@ -8275,7 +9129,7 @@
         <v>58412</v>
       </c>
       <c r="C482" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D482">
         <v>58412</v>
@@ -8290,7 +9144,7 @@
         <v>58412</v>
       </c>
       <c r="C483" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D483">
         <v>58412</v>
@@ -8305,7 +9159,7 @@
         <v>58424</v>
       </c>
       <c r="C484" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D484">
         <v>58424</v>
@@ -8320,7 +9174,7 @@
         <v>58424</v>
       </c>
       <c r="C485" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D485">
         <v>58424</v>
@@ -8335,7 +9189,7 @@
         <v>58412</v>
       </c>
       <c r="C486" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D486">
         <v>58412</v>
@@ -8350,7 +9204,7 @@
         <v>58412</v>
       </c>
       <c r="C487" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D487">
         <v>58412</v>
@@ -8365,7 +9219,7 @@
         <v>58412</v>
       </c>
       <c r="C488" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D488">
         <v>58412</v>
@@ -8380,7 +9234,7 @@
         <v>58412</v>
       </c>
       <c r="C489" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D489">
         <v>58412</v>
@@ -8395,7 +9249,7 @@
         <v>58412</v>
       </c>
       <c r="C490" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D490">
         <v>58412</v>
@@ -8410,7 +9264,7 @@
         <v>58412</v>
       </c>
       <c r="C491" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D491">
         <v>58412</v>
@@ -8425,7 +9279,7 @@
         <v>58412</v>
       </c>
       <c r="C492" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D492">
         <v>58412</v>
@@ -8440,7 +9294,7 @@
         <v>58426</v>
       </c>
       <c r="C493" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D493">
         <v>58426</v>
@@ -8455,7 +9309,7 @@
         <v>58424</v>
       </c>
       <c r="C494" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D494">
         <v>58424</v>
@@ -8470,7 +9324,7 @@
         <v>58424</v>
       </c>
       <c r="C495" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D495">
         <v>58424</v>
@@ -8485,7 +9339,7 @@
         <v>58414</v>
       </c>
       <c r="C496" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D496">
         <v>58414</v>
@@ -8500,7 +9354,7 @@
         <v>58414</v>
       </c>
       <c r="C497" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D497">
         <v>58414</v>
@@ -8515,7 +9369,7 @@
         <v>58412</v>
       </c>
       <c r="C498" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D498">
         <v>58412</v>
@@ -8530,7 +9384,7 @@
         <v>58412</v>
       </c>
       <c r="C499" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D499">
         <v>58412</v>
@@ -8545,7 +9399,7 @@
         <v>58412</v>
       </c>
       <c r="C500" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D500">
         <v>58412</v>
@@ -8560,7 +9414,7 @@
         <v>58412</v>
       </c>
       <c r="C501" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D501">
         <v>58412</v>
@@ -8575,7 +9429,7 @@
         <v>58412</v>
       </c>
       <c r="C502" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D502">
         <v>58412</v>
@@ -8590,7 +9444,7 @@
         <v>58424</v>
       </c>
       <c r="C503" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D503">
         <v>58424</v>
@@ -8605,7 +9459,7 @@
         <v>58424</v>
       </c>
       <c r="C504" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D504">
         <v>58424</v>
@@ -8620,7 +9474,7 @@
         <v>58424</v>
       </c>
       <c r="C505" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D505">
         <v>58424</v>
@@ -8635,7 +9489,7 @@
         <v>58414</v>
       </c>
       <c r="C506" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D506">
         <v>58414</v>
@@ -8650,7 +9504,7 @@
         <v>58412</v>
       </c>
       <c r="C507" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D507">
         <v>58412</v>
@@ -8665,7 +9519,7 @@
         <v>58412</v>
       </c>
       <c r="C508" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D508">
         <v>58412</v>
@@ -8680,7 +9534,7 @@
         <v>58426</v>
       </c>
       <c r="C509" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D509">
         <v>58426</v>
@@ -8695,7 +9549,7 @@
         <v>58426</v>
       </c>
       <c r="C510" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D510">
         <v>58426</v>
@@ -8710,7 +9564,7 @@
         <v>58424</v>
       </c>
       <c r="C511" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D511">
         <v>58424</v>
@@ -8725,7 +9579,7 @@
         <v>58424</v>
       </c>
       <c r="C512" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D512">
         <v>58424</v>
@@ -8740,7 +9594,7 @@
         <v>58414</v>
       </c>
       <c r="C513" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D513">
         <v>58414</v>
@@ -8755,7 +9609,7 @@
         <v>58</v>
       </c>
       <c r="C514" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D514">
         <v>58</v>
@@ -8770,7 +9624,7 @@
         <v>58426</v>
       </c>
       <c r="C515" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D515">
         <v>58426</v>
@@ -8785,7 +9639,7 @@
         <v>58426</v>
       </c>
       <c r="C516" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D516">
         <v>58426</v>
@@ -8800,7 +9654,7 @@
         <v>58426</v>
       </c>
       <c r="C517" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D517">
         <v>58426</v>
@@ -8815,7 +9669,7 @@
         <v>58424</v>
       </c>
       <c r="C518" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D518">
         <v>58424</v>
@@ -8830,7 +9684,7 @@
         <v>58424</v>
       </c>
       <c r="C519" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D519">
         <v>58424</v>
@@ -8845,7 +9699,7 @@
         <v>58424</v>
       </c>
       <c r="C520" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D520">
         <v>58424</v>
@@ -8860,7 +9714,7 @@
         <v>58424</v>
       </c>
       <c r="C521" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D521">
         <v>58424</v>
@@ -8875,7 +9729,7 @@
         <v>58426</v>
       </c>
       <c r="C522" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D522">
         <v>58426</v>
@@ -8890,7 +9744,7 @@
         <v>58426</v>
       </c>
       <c r="C523" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D523">
         <v>58426</v>
@@ -8905,7 +9759,7 @@
         <v>58412</v>
       </c>
       <c r="C524" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D524">
         <v>58412</v>
@@ -8920,7 +9774,7 @@
         <v>58424</v>
       </c>
       <c r="C525" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D525">
         <v>58424</v>
@@ -8935,7 +9789,7 @@
         <v>58424</v>
       </c>
       <c r="C526" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D526">
         <v>58424</v>
@@ -8950,7 +9804,7 @@
         <v>58412</v>
       </c>
       <c r="C527" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D527">
         <v>58412</v>
@@ -8965,7 +9819,7 @@
         <v>58412</v>
       </c>
       <c r="C528" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D528">
         <v>58412</v>
@@ -8980,7 +9834,7 @@
         <v>58412</v>
       </c>
       <c r="C529" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D529">
         <v>58412</v>
@@ -8995,7 +9849,7 @@
         <v>58412</v>
       </c>
       <c r="C530" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D530">
         <v>58412</v>
@@ -9010,7 +9864,7 @@
         <v>58412</v>
       </c>
       <c r="C531" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D531">
         <v>58412</v>
@@ -9025,7 +9879,7 @@
         <v>58412</v>
       </c>
       <c r="C532" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D532">
         <v>58412</v>
@@ -9040,7 +9894,7 @@
         <v>58414</v>
       </c>
       <c r="C533" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D533">
         <v>58414</v>
@@ -9055,7 +9909,7 @@
         <v>58414</v>
       </c>
       <c r="C534" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D534">
         <v>58414</v>
@@ -9070,7 +9924,7 @@
         <v>58414</v>
       </c>
       <c r="C535" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D535">
         <v>58414</v>
@@ -9085,7 +9939,7 @@
         <v>58414</v>
       </c>
       <c r="C536" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D536">
         <v>58414</v>
@@ -9100,7 +9954,7 @@
         <v>58414</v>
       </c>
       <c r="C537" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D537">
         <v>58414</v>
@@ -9115,7 +9969,7 @@
         <v>58414</v>
       </c>
       <c r="C538" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D538">
         <v>58414</v>
@@ -9130,7 +9984,7 @@
         <v>58412</v>
       </c>
       <c r="C539" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D539">
         <v>58412</v>
@@ -9145,7 +9999,7 @@
         <v>58412</v>
       </c>
       <c r="C540" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D540">
         <v>58412</v>
@@ -9160,7 +10014,7 @@
         <v>58412</v>
       </c>
       <c r="C541" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D541">
         <v>58412</v>
@@ -9175,7 +10029,7 @@
         <v>58414</v>
       </c>
       <c r="C542" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D542">
         <v>58414</v>
@@ -9190,7 +10044,7 @@
         <v>58414</v>
       </c>
       <c r="C543" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D543">
         <v>58414</v>
@@ -9205,7 +10059,7 @@
         <v>58426</v>
       </c>
       <c r="C544" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D544">
         <v>58426</v>
@@ -9220,7 +10074,7 @@
         <v>58414</v>
       </c>
       <c r="C545" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D545">
         <v>58414</v>
@@ -9235,7 +10089,7 @@
         <v>58414</v>
       </c>
       <c r="C546" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D546">
         <v>58414</v>
@@ -9250,7 +10104,7 @@
         <v>58414</v>
       </c>
       <c r="C547" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D547">
         <v>58414</v>
@@ -9265,7 +10119,7 @@
         <v>58414</v>
       </c>
       <c r="C548" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D548">
         <v>58414</v>
@@ -9280,7 +10134,7 @@
         <v>58426</v>
       </c>
       <c r="C549" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D549">
         <v>58426</v>
@@ -9295,7 +10149,7 @@
         <v>58426</v>
       </c>
       <c r="C550" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D550">
         <v>58426</v>
@@ -9310,7 +10164,7 @@
         <v>58412</v>
       </c>
       <c r="C551" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D551">
         <v>58412</v>
@@ -9325,7 +10179,7 @@
         <v>58412</v>
       </c>
       <c r="C552" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D552">
         <v>58412</v>
@@ -9340,7 +10194,7 @@
         <v>58412</v>
       </c>
       <c r="C553" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D553">
         <v>58412</v>
@@ -9355,7 +10209,7 @@
         <v>58426</v>
       </c>
       <c r="C554" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D554">
         <v>58426</v>
@@ -9370,7 +10224,7 @@
         <v>58426</v>
       </c>
       <c r="C555" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D555">
         <v>58426</v>
@@ -9385,7 +10239,7 @@
         <v>58424</v>
       </c>
       <c r="C556" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D556">
         <v>58424</v>
@@ -9400,7 +10254,7 @@
         <v>58424</v>
       </c>
       <c r="C557" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D557">
         <v>58424</v>
@@ -9415,7 +10269,7 @@
         <v>58424</v>
       </c>
       <c r="C558" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D558">
         <v>58424</v>
@@ -9430,7 +10284,7 @@
         <v>58414</v>
       </c>
       <c r="C559" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D559">
         <v>58414</v>
@@ -9445,7 +10299,7 @@
         <v>58414</v>
       </c>
       <c r="C560" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D560">
         <v>58414</v>
@@ -9460,7 +10314,7 @@
         <v>58424</v>
       </c>
       <c r="C561" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D561">
         <v>58424</v>
@@ -9475,7 +10329,7 @@
         <v>58424</v>
       </c>
       <c r="C562" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D562">
         <v>58424</v>
@@ -9490,7 +10344,7 @@
         <v>58424</v>
       </c>
       <c r="C563" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D563">
         <v>58424</v>
@@ -9505,7 +10359,7 @@
         <v>58414</v>
       </c>
       <c r="C564" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D564">
         <v>58414</v>
@@ -9520,7 +10374,7 @@
         <v>58414</v>
       </c>
       <c r="C565" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D565">
         <v>58414</v>
@@ -9535,7 +10389,7 @@
         <v>58424</v>
       </c>
       <c r="C566" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D566">
         <v>58424</v>
@@ -9550,7 +10404,7 @@
         <v>58424</v>
       </c>
       <c r="C567" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D567">
         <v>58424</v>
@@ -9565,7 +10419,7 @@
         <v>58424</v>
       </c>
       <c r="C568" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D568">
         <v>58424</v>
@@ -9580,7 +10434,7 @@
         <v>58412</v>
       </c>
       <c r="C569" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D569">
         <v>58412</v>
@@ -9595,7 +10449,7 @@
         <v>58424</v>
       </c>
       <c r="C570" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D570">
         <v>58424</v>
@@ -9610,7 +10464,7 @@
         <v>58424</v>
       </c>
       <c r="C571" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D571">
         <v>58424</v>
@@ -9625,7 +10479,7 @@
         <v>58424</v>
       </c>
       <c r="C572" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D572">
         <v>58424</v>
@@ -9640,7 +10494,7 @@
         <v>58</v>
       </c>
       <c r="C573" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D573">
         <v>58</v>
@@ -9655,7 +10509,7 @@
         <v>58</v>
       </c>
       <c r="C574" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D574">
         <v>58</v>
@@ -9670,7 +10524,7 @@
         <v>58</v>
       </c>
       <c r="C575" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D575">
         <v>58</v>
@@ -9685,7 +10539,7 @@
         <v>58</v>
       </c>
       <c r="C576" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D576">
         <v>58</v>
@@ -9700,7 +10554,7 @@
         <v>58</v>
       </c>
       <c r="C577" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D577">
         <v>58</v>
@@ -9715,7 +10569,7 @@
         <v>58414</v>
       </c>
       <c r="C578" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D578">
         <v>58414</v>
@@ -9730,7 +10584,7 @@
         <v>58414</v>
       </c>
       <c r="C579" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D579">
         <v>58414</v>
@@ -9745,7 +10599,7 @@
         <v>58414</v>
       </c>
       <c r="C580" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D580">
         <v>58414</v>
@@ -9760,7 +10614,7 @@
         <v>58</v>
       </c>
       <c r="C581" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D581">
         <v>58</v>
@@ -9775,7 +10629,7 @@
         <v>58</v>
       </c>
       <c r="C582" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D582">
         <v>58</v>
@@ -9790,7 +10644,7 @@
         <v>58</v>
       </c>
       <c r="C583" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D583">
         <v>58</v>
@@ -9805,7 +10659,7 @@
         <v>58</v>
       </c>
       <c r="C584" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D584">
         <v>58</v>
@@ -9820,7 +10674,7 @@
         <v>58416</v>
       </c>
       <c r="C585" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D585">
         <v>58416</v>
@@ -9835,7 +10689,7 @@
         <v>58416</v>
       </c>
       <c r="C586" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D586">
         <v>58416</v>
@@ -9850,7 +10704,7 @@
         <v>58416</v>
       </c>
       <c r="C587" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D587">
         <v>58416</v>
@@ -9865,7 +10719,7 @@
         <v>58416</v>
       </c>
       <c r="C588" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D588">
         <v>58416</v>
@@ -9880,7 +10734,7 @@
         <v>58416</v>
       </c>
       <c r="C589" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D589">
         <v>58416</v>
@@ -9895,7 +10749,7 @@
         <v>58416</v>
       </c>
       <c r="C590" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D590">
         <v>58416</v>

--- a/Web/UserEx.Web/wwwroot/Files/CDRs-05_11_09_2022-58_Test.xlsx
+++ b/Web/UserEx.Web/wwwroot/Files/CDRs-05_11_09_2022-58_Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://naxex-my.sharepoint.com/personal/emil_hristov_tiebreak_solutions/Documents/Stuff/coding/ASP.NET/UseEx_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:40009_{FE1188AE-CE64-4C70-85CC-BE83470E41A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B4B27DA-B9BA-4FBA-8AA2-FA09ECA673F9}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:40009_{FE1188AE-CE64-4C70-85CC-BE83470E41A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68AF224A-BD90-4B3B-A662-8E91FEA1B6A6}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CDRs-05_11_09_2022-58" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -81,10 +81,16 @@
     <t>DIDWW</t>
   </si>
   <si>
+    <t>IDT-UK</t>
+  </si>
+  <si>
+    <t>restricted</t>
+  </si>
+  <si>
     <t>DIDlogic</t>
   </si>
   <si>
-    <t>restricted</t>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -927,10 +933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,13 +974,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>44809.653043981481</v>
+        <v>44809.653738425928</v>
       </c>
       <c r="B2" s="2">
-        <v>582123359400</v>
+        <v>582123359401</v>
       </c>
       <c r="C2" s="2">
-        <v>584125962478</v>
+        <v>584125962479</v>
       </c>
       <c r="D2">
         <v>58412</v>
@@ -986,12 +992,12 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>44809.653414351851</v>
+        <v>44809.653043981481</v>
       </c>
       <c r="B3" s="2">
         <v>582123359400</v>
@@ -1009,136 +1015,136 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>44809.656180555554</v>
+        <v>44809.696018518516</v>
       </c>
       <c r="B4" s="2">
         <v>582123359400</v>
       </c>
       <c r="C4" s="2">
-        <v>584127742643</v>
+        <v>584145289542</v>
       </c>
       <c r="D4">
-        <v>58412</v>
+        <v>58414</v>
       </c>
       <c r="E4">
-        <v>7.9799999999999996E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>44809.656388888892</v>
+        <v>44809.697893518518</v>
       </c>
       <c r="B5" s="2">
-        <v>582123359400</v>
+        <v>582123358883</v>
       </c>
       <c r="C5" s="2">
-        <v>584127742643</v>
+        <v>584145729872</v>
       </c>
       <c r="D5">
-        <v>58412</v>
+        <v>58414</v>
       </c>
       <c r="E5">
-        <v>6.9000000000000006E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>44809.687210648146</v>
+        <v>44809.697928240741</v>
       </c>
       <c r="B6" s="2">
         <v>582123359400</v>
       </c>
       <c r="C6" s="2">
-        <v>584247026833</v>
+        <v>584145289542</v>
       </c>
       <c r="D6">
-        <v>58424</v>
+        <v>58414</v>
       </c>
       <c r="E6">
         <v>0.05</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>44809.687986111108</v>
+        <v>44809.698634259257</v>
       </c>
       <c r="B7" s="2">
-        <v>582123359400</v>
+        <v>582123358883</v>
       </c>
       <c r="C7" s="2">
-        <v>584247026833</v>
+        <v>584145729872</v>
       </c>
       <c r="D7">
-        <v>58424</v>
+        <v>58414</v>
       </c>
       <c r="E7">
-        <v>5.7000000000000002E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>44809.691817129627</v>
+        <v>44809.71334490741</v>
       </c>
       <c r="B8" s="2">
         <v>582123358883</v>
       </c>
       <c r="C8" s="2">
-        <v>584147161946</v>
+        <v>584246265377</v>
       </c>
       <c r="D8">
-        <v>58414</v>
+        <v>58424</v>
       </c>
       <c r="E8">
-        <v>5.7000000000000002E-2</v>
+        <v>8.4239999999999995E-2</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>44809.692442129628</v>
+        <v>44809.713796296295</v>
       </c>
       <c r="B9" s="2">
         <v>582123358883</v>
       </c>
       <c r="C9" s="2">
-        <v>584147161946</v>
+        <v>584246265377</v>
       </c>
       <c r="D9">
-        <v>58414</v>
+        <v>58424</v>
       </c>
       <c r="E9">
         <v>8.4239999999999995E-2</v>
@@ -1147,104 +1153,104 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>44809.696018518516</v>
+        <v>44809.714409722219</v>
       </c>
       <c r="B10" s="2">
-        <v>582123359400</v>
+        <v>582123358883</v>
       </c>
       <c r="C10" s="2">
-        <v>584145289542</v>
+        <v>584246265377</v>
       </c>
       <c r="D10">
-        <v>58414</v>
+        <v>58424</v>
       </c>
       <c r="E10">
-        <v>0.05</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="F10">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>44809.697893518518</v>
+        <v>44809.715624999997</v>
       </c>
       <c r="B11" s="2">
-        <v>582123358883</v>
+        <v>576015087102</v>
       </c>
       <c r="C11" s="2">
-        <v>584145729872</v>
+        <v>584124651224</v>
       </c>
       <c r="D11">
-        <v>58414</v>
+        <v>58412</v>
       </c>
       <c r="E11">
-        <v>0.05</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>44809.697928240741</v>
+        <v>44809.716446759259</v>
       </c>
       <c r="B12" s="2">
-        <v>582123359400</v>
+        <v>576015087102</v>
       </c>
       <c r="C12" s="2">
-        <v>584145289542</v>
+        <v>584124651224</v>
       </c>
       <c r="D12">
-        <v>58414</v>
+        <v>58412</v>
       </c>
       <c r="E12">
-        <v>0.05</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="F12">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>44809.698634259257</v>
+        <v>44809.716643518521</v>
       </c>
       <c r="B13" s="2">
         <v>582123358883</v>
       </c>
       <c r="C13" s="2">
-        <v>584145729872</v>
+        <v>584246265377</v>
       </c>
       <c r="D13">
-        <v>58414</v>
+        <v>58424</v>
       </c>
       <c r="E13">
-        <v>0.05</v>
+        <v>8.4239999999999995E-2</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>44809.71334490741</v>
+        <v>44809.717141203706</v>
       </c>
       <c r="B14" s="2">
         <v>582123358883</v>
@@ -1256,53 +1262,53 @@
         <v>58424</v>
       </c>
       <c r="E14">
-        <v>8.4239999999999995E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>44809.713796296295</v>
+        <v>44809.738402777781</v>
       </c>
       <c r="B15" s="2">
-        <v>582123358883</v>
+        <v>582123359401</v>
       </c>
       <c r="C15" s="2">
-        <v>584246265377</v>
+        <v>584264178094</v>
       </c>
       <c r="D15">
-        <v>58424</v>
+        <v>58426</v>
       </c>
       <c r="E15">
-        <v>8.4239999999999995E-2</v>
+        <v>3.313E-2</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>44809.714409722219</v>
+        <v>44809.738483796296</v>
       </c>
       <c r="B16" s="2">
-        <v>582123358883</v>
+        <v>582123359401</v>
       </c>
       <c r="C16" s="2">
-        <v>584246265377</v>
+        <v>584264178094</v>
       </c>
       <c r="D16">
-        <v>58424</v>
+        <v>58426</v>
       </c>
       <c r="E16">
-        <v>5.7000000000000002E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1313,22 +1319,22 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>44809.715624999997</v>
+        <v>44809.738622685189</v>
       </c>
       <c r="B17" s="2">
-        <v>576015087102</v>
+        <v>582123359401</v>
       </c>
       <c r="C17" s="2">
-        <v>584124651224</v>
+        <v>584264178094</v>
       </c>
       <c r="D17">
-        <v>58412</v>
+        <v>58426</v>
       </c>
       <c r="E17">
-        <v>6.9000000000000006E-2</v>
+        <v>3.313E-2</v>
       </c>
       <c r="F17">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="G17" t="s">
         <v>13</v>
@@ -1336,22 +1342,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>44809.716446759259</v>
+        <v>44809.738749999997</v>
       </c>
       <c r="B18" s="2">
-        <v>576015087102</v>
+        <v>582123359401</v>
       </c>
       <c r="C18" s="2">
-        <v>584124651224</v>
+        <v>584264178094</v>
       </c>
       <c r="D18">
-        <v>58412</v>
+        <v>58426</v>
       </c>
       <c r="E18">
-        <v>6.9000000000000006E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F18">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G18" t="s">
         <v>13</v>
@@ -1359,19 +1365,19 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>44809.716643518521</v>
+        <v>44809.741863425923</v>
       </c>
       <c r="B19" s="2">
         <v>582123358883</v>
       </c>
       <c r="C19" s="2">
-        <v>584246265377</v>
+        <v>584166745200</v>
       </c>
       <c r="D19">
-        <v>58424</v>
+        <v>58416</v>
       </c>
       <c r="E19">
-        <v>8.4239999999999995E-2</v>
+        <v>3.313E-2</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1382,19 +1388,19 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>44809.717141203706</v>
+        <v>44809.742199074077</v>
       </c>
       <c r="B20" s="2">
         <v>582123358883</v>
       </c>
       <c r="C20" s="2">
-        <v>584246265377</v>
+        <v>584166745200</v>
       </c>
       <c r="D20">
-        <v>58424</v>
+        <v>58416</v>
       </c>
       <c r="E20">
-        <v>0.05</v>
+        <v>2.3E-2</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1405,22 +1411,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>44809.738402777781</v>
+        <v>44809.752754629626</v>
       </c>
       <c r="B21" s="2">
-        <v>582123359401</v>
+        <v>582123358883</v>
       </c>
       <c r="C21" s="2">
-        <v>584264178094</v>
+        <v>584120793060</v>
       </c>
       <c r="D21">
-        <v>58426</v>
+        <v>58412</v>
       </c>
       <c r="E21">
-        <v>3.313E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G21" t="s">
         <v>13</v>
@@ -1428,19 +1434,19 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>44809.738483796296</v>
+        <v>44809.75708333333</v>
       </c>
       <c r="B22" s="2">
-        <v>582123359401</v>
+        <v>582123358883</v>
       </c>
       <c r="C22" s="2">
-        <v>584264178094</v>
+        <v>584247680107</v>
       </c>
       <c r="D22">
-        <v>58426</v>
+        <v>58424</v>
       </c>
       <c r="E22">
-        <v>2.3E-2</v>
+        <v>8.4239999999999995E-2</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1451,427 +1457,427 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>44809.738622685189</v>
+        <v>44809.757199074076</v>
       </c>
       <c r="B23" s="2">
-        <v>582123359401</v>
+        <v>582123358883</v>
       </c>
       <c r="C23" s="2">
-        <v>584264178094</v>
+        <v>584247680107</v>
       </c>
       <c r="D23">
-        <v>58426</v>
+        <v>58424</v>
       </c>
       <c r="E23">
-        <v>3.313E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>44809.738749999997</v>
+        <v>44809.767210648148</v>
       </c>
       <c r="B24" s="2">
-        <v>582123359401</v>
+        <v>582123359400</v>
       </c>
       <c r="C24" s="2">
-        <v>584264178094</v>
+        <v>584126041686</v>
       </c>
       <c r="D24">
-        <v>58426</v>
+        <v>58412</v>
       </c>
       <c r="E24">
-        <v>0.05</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>44809.741863425923</v>
+        <v>44809.767754629633</v>
       </c>
       <c r="B25" s="2">
-        <v>582123358883</v>
+        <v>582123359400</v>
       </c>
       <c r="C25" s="2">
-        <v>584166745200</v>
+        <v>584126041686</v>
       </c>
       <c r="D25">
-        <v>58416</v>
+        <v>58412</v>
       </c>
       <c r="E25">
-        <v>3.313E-2</v>
+        <v>7.9799999999999996E-2</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>44809.742199074077</v>
+        <v>44809.768240740741</v>
       </c>
       <c r="B26" s="2">
-        <v>582123358883</v>
+        <v>582123359400</v>
       </c>
       <c r="C26" s="2">
-        <v>584166745200</v>
+        <v>584126041686</v>
       </c>
       <c r="D26">
-        <v>58416</v>
+        <v>58412</v>
       </c>
       <c r="E26">
-        <v>2.3E-2</v>
+        <v>7.9799999999999996E-2</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>44809.752754629626</v>
+        <v>44809.768576388888</v>
       </c>
       <c r="B27" s="2">
-        <v>582123358883</v>
+        <v>582123359400</v>
       </c>
       <c r="C27" s="2">
-        <v>584120793060</v>
+        <v>584126041686</v>
       </c>
       <c r="D27">
         <v>58412</v>
       </c>
       <c r="E27">
-        <v>6.9000000000000006E-2</v>
+        <v>7.9799999999999996E-2</v>
       </c>
       <c r="F27">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>44809.75708333333</v>
+        <v>44809.768738425926</v>
       </c>
       <c r="B28" s="2">
-        <v>582123358883</v>
+        <v>582123359400</v>
       </c>
       <c r="C28" s="2">
-        <v>584247680107</v>
+        <v>584126041686</v>
       </c>
       <c r="D28">
-        <v>58424</v>
+        <v>58412</v>
       </c>
       <c r="E28">
-        <v>8.4239999999999995E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>44809.757199074076</v>
+        <v>44809.770983796298</v>
       </c>
       <c r="B29" s="2">
         <v>582123358883</v>
       </c>
       <c r="C29" s="2">
-        <v>584247680107</v>
+        <v>584141208521</v>
       </c>
       <c r="D29">
-        <v>58424</v>
+        <v>58414</v>
       </c>
       <c r="E29">
-        <v>0.05</v>
+        <v>8.4239999999999995E-2</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>44809.767210648148</v>
-      </c>
-      <c r="B30" s="2">
-        <v>582123359400</v>
+        <v>44809.771226851852</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C30" s="2">
-        <v>584126041686</v>
+        <v>584141208521</v>
       </c>
       <c r="D30">
-        <v>58412</v>
+        <v>58414</v>
       </c>
       <c r="E30">
-        <v>6.9000000000000006E-2</v>
+        <v>8.4239999999999995E-2</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>44809.767754629633</v>
+        <v>44809.777372685188</v>
       </c>
       <c r="B31" s="2">
-        <v>582123359400</v>
+        <v>582123358883</v>
       </c>
       <c r="C31" s="2">
-        <v>584126041686</v>
+        <v>584241954301</v>
       </c>
       <c r="D31">
-        <v>58412</v>
+        <v>58424</v>
       </c>
       <c r="E31">
-        <v>7.9799999999999996E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>44809.768240740741</v>
+        <v>44809.780173611114</v>
       </c>
       <c r="B32" s="2">
-        <v>582123359400</v>
+        <v>528153503308</v>
       </c>
       <c r="C32" s="2">
-        <v>584126041686</v>
+        <v>58983708318</v>
       </c>
       <c r="D32">
-        <v>58412</v>
+        <v>58</v>
       </c>
       <c r="E32">
-        <v>7.9799999999999996E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>44809.768576388888</v>
+        <v>44809.780173611114</v>
       </c>
       <c r="B33" s="2">
-        <v>582123359400</v>
+        <v>528153503308</v>
       </c>
       <c r="C33" s="2">
-        <v>584126041686</v>
+        <v>58983708318</v>
       </c>
       <c r="D33">
-        <v>58412</v>
+        <v>58</v>
       </c>
       <c r="E33">
-        <v>7.9799999999999996E-2</v>
+        <v>1.5599999999999999E-2</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>44809.768738425926</v>
+        <v>44809.780173611114</v>
       </c>
       <c r="B34" s="2">
-        <v>582123359400</v>
+        <v>528153503308</v>
       </c>
       <c r="C34" s="2">
-        <v>584126041686</v>
+        <v>58983708318</v>
       </c>
       <c r="D34">
-        <v>58412</v>
+        <v>58</v>
       </c>
       <c r="E34">
-        <v>6.9000000000000006E-2</v>
+        <v>1.5599999999999999E-2</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>44809.770983796298</v>
+        <v>44809.781678240739</v>
       </c>
       <c r="B35" s="2">
-        <v>582123358883</v>
+        <v>582123359400</v>
       </c>
       <c r="C35" s="2">
-        <v>584141208521</v>
+        <v>584125962478</v>
       </c>
       <c r="D35">
-        <v>58414</v>
+        <v>58412</v>
       </c>
       <c r="E35">
-        <v>8.4239999999999995E-2</v>
+        <v>7.9799999999999996E-2</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>44809.771226851852</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>15</v>
+        <v>44809.781712962962</v>
+      </c>
+      <c r="B36" s="2">
+        <v>582123359400</v>
       </c>
       <c r="C36" s="2">
-        <v>584141208521</v>
+        <v>584125962478</v>
       </c>
       <c r="D36">
-        <v>58414</v>
+        <v>58412</v>
       </c>
       <c r="E36">
-        <v>8.4239999999999995E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>44809.777372685188</v>
+        <v>44809.783692129633</v>
       </c>
       <c r="B37" s="2">
-        <v>582123358883</v>
+        <v>582123359400</v>
       </c>
       <c r="C37" s="2">
-        <v>584241954301</v>
+        <v>584128984639</v>
       </c>
       <c r="D37">
-        <v>58424</v>
+        <v>58412</v>
       </c>
       <c r="E37">
-        <v>0.05</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>44809.780173611114</v>
+        <v>44809.783761574072</v>
       </c>
       <c r="B38" s="2">
-        <v>528153503308</v>
+        <v>582123359400</v>
       </c>
       <c r="C38" s="2">
-        <v>58983708318</v>
+        <v>584127742643</v>
       </c>
       <c r="D38">
-        <v>58</v>
+        <v>58412</v>
       </c>
       <c r="E38">
-        <v>1.4999999999999999E-2</v>
+        <v>7.9799999999999996E-2</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>44809.780173611114</v>
+        <v>44809.783854166664</v>
       </c>
       <c r="B39" s="2">
-        <v>528153503308</v>
+        <v>582123359400</v>
       </c>
       <c r="C39" s="2">
-        <v>58983708318</v>
+        <v>584127742643</v>
       </c>
       <c r="D39">
-        <v>58</v>
+        <v>58412</v>
       </c>
       <c r="E39">
-        <v>1.5599999999999999E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>44809.780173611114</v>
-      </c>
-      <c r="B40" s="2">
-        <v>528153503308</v>
+        <v>44809.784398148149</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C40" s="2">
-        <v>58983708318</v>
+        <v>584127742643</v>
       </c>
       <c r="D40">
-        <v>58</v>
+        <v>58412</v>
       </c>
       <c r="E40">
-        <v>1.5599999999999999E-2</v>
+        <v>7.9799999999999996E-2</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>44809.781678240739</v>
-      </c>
-      <c r="B41" s="2">
-        <v>582123359400</v>
+        <v>44809.784907407404</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C41" s="2">
-        <v>584125962478</v>
+        <v>584127742643</v>
       </c>
       <c r="D41">
         <v>58412</v>
@@ -1883,7 +1889,444 @@
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>44809.785000000003</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="2">
+        <v>584127742643</v>
+      </c>
+      <c r="D42">
+        <v>58412</v>
+      </c>
+      <c r="E42">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>44809.802118055559</v>
+      </c>
+      <c r="B43" s="2">
+        <v>582123358883</v>
+      </c>
+      <c r="C43" s="2">
+        <v>584120672358</v>
+      </c>
+      <c r="D43">
+        <v>58412</v>
+      </c>
+      <c r="E43">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>44809.803032407406</v>
+      </c>
+      <c r="B44" s="2">
+        <v>582123358883</v>
+      </c>
+      <c r="C44" s="2">
+        <v>584121028200</v>
+      </c>
+      <c r="D44">
+        <v>58412</v>
+      </c>
+      <c r="E44">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="F44">
+        <v>75</v>
+      </c>
+      <c r="G44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44809.803124999999</v>
+      </c>
+      <c r="B45" s="2">
+        <v>582123358883</v>
+      </c>
+      <c r="C45" s="2">
+        <v>584120672358</v>
+      </c>
+      <c r="D45">
+        <v>58412</v>
+      </c>
+      <c r="E45">
+        <v>7.9799999999999996E-2</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>44809.803287037037</v>
+      </c>
+      <c r="B46" s="2">
+        <v>582123358883</v>
+      </c>
+      <c r="C46" s="2">
+        <v>584120672358</v>
+      </c>
+      <c r="D46">
+        <v>58412</v>
+      </c>
+      <c r="E46">
+        <v>7.9799999999999996E-2</v>
+      </c>
+      <c r="F46">
+        <v>117</v>
+      </c>
+      <c r="G46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>44809.812557870369</v>
+      </c>
+      <c r="B47" s="2">
+        <v>582123359400</v>
+      </c>
+      <c r="C47" s="2">
+        <v>584249500488</v>
+      </c>
+      <c r="D47">
+        <v>58424</v>
+      </c>
+      <c r="E47">
+        <v>0.05</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>44809.812916666669</v>
+      </c>
+      <c r="B48" s="2">
+        <v>582123359400</v>
+      </c>
+      <c r="C48" s="2">
+        <v>584249500488</v>
+      </c>
+      <c r="D48">
+        <v>58424</v>
+      </c>
+      <c r="E48">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="F48">
+        <v>8</v>
+      </c>
+      <c r="G48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>44809.813449074078</v>
+      </c>
+      <c r="B49" s="2">
+        <v>582123358883</v>
+      </c>
+      <c r="C49" s="2">
+        <v>584247273078</v>
+      </c>
+      <c r="D49">
+        <v>58424</v>
+      </c>
+      <c r="E49">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="F49">
+        <v>20</v>
+      </c>
+      <c r="G49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>44809.813946759263</v>
+      </c>
+      <c r="B50" s="2">
+        <v>582123358883</v>
+      </c>
+      <c r="C50" s="2">
+        <v>584247273078</v>
+      </c>
+      <c r="D50">
+        <v>58424</v>
+      </c>
+      <c r="E50">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="F50">
+        <v>202</v>
+      </c>
+      <c r="G50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>44809.814386574071</v>
+      </c>
+      <c r="B51" s="2">
+        <v>582123358883</v>
+      </c>
+      <c r="C51" s="2">
+        <v>584122052776</v>
+      </c>
+      <c r="D51">
+        <v>58412</v>
+      </c>
+      <c r="E51">
+        <v>7.9799999999999996E-2</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>44809.815011574072</v>
+      </c>
+      <c r="B52" s="2">
+        <v>582123359400</v>
+      </c>
+      <c r="C52" s="2">
+        <v>584126609033</v>
+      </c>
+      <c r="D52">
+        <v>58412</v>
+      </c>
+      <c r="E52">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>44809.81517361111</v>
+      </c>
+      <c r="B53" s="2">
+        <v>582123359400</v>
+      </c>
+      <c r="C53" s="2">
+        <v>584247026833</v>
+      </c>
+      <c r="D53">
+        <v>58424</v>
+      </c>
+      <c r="E53">
+        <v>0.05</v>
+      </c>
+      <c r="F53">
+        <v>157</v>
+      </c>
+      <c r="G53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>44809.815254629626</v>
+      </c>
+      <c r="B54" s="2">
+        <v>582123358883</v>
+      </c>
+      <c r="C54" s="2">
+        <v>584122052776</v>
+      </c>
+      <c r="D54">
+        <v>58412</v>
+      </c>
+      <c r="E54">
+        <v>7.9799999999999996E-2</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>44809.815451388888</v>
+      </c>
+      <c r="B55" s="2">
+        <v>582123358883</v>
+      </c>
+      <c r="C55" s="2">
+        <v>584122052776</v>
+      </c>
+      <c r="D55">
+        <v>58412</v>
+      </c>
+      <c r="E55">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="F55">
+        <v>66</v>
+      </c>
+      <c r="G55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>44809.81591435185</v>
+      </c>
+      <c r="B56" s="2">
+        <v>582123359400</v>
+      </c>
+      <c r="C56" s="2">
+        <v>584248122961</v>
+      </c>
+      <c r="D56">
+        <v>58424</v>
+      </c>
+      <c r="E56">
+        <v>0.05</v>
+      </c>
+      <c r="F56">
+        <v>35</v>
+      </c>
+      <c r="G56" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>44809.815983796296</v>
+      </c>
+      <c r="B57" s="2">
+        <v>582123359400</v>
+      </c>
+      <c r="C57" s="2">
+        <v>584126609033</v>
+      </c>
+      <c r="D57">
+        <v>58412</v>
+      </c>
+      <c r="E57">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>44809.816469907404</v>
+      </c>
+      <c r="B58" s="2">
+        <v>582123358883</v>
+      </c>
+      <c r="C58" s="2">
+        <v>584247273078</v>
+      </c>
+      <c r="D58">
+        <v>58424</v>
+      </c>
+      <c r="E58">
+        <v>0.05</v>
+      </c>
+      <c r="F58">
+        <v>4</v>
+      </c>
+      <c r="G58" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>44809.817071759258</v>
+      </c>
+      <c r="B59" s="2">
+        <v>582123359400</v>
+      </c>
+      <c r="C59" s="2">
+        <v>584248122961</v>
+      </c>
+      <c r="D59">
+        <v>58424</v>
+      </c>
+      <c r="E59">
+        <v>0.05</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>44809.817106481481</v>
+      </c>
+      <c r="B60" s="2">
+        <v>582123358883</v>
+      </c>
+      <c r="C60" s="2">
+        <v>584247273078</v>
+      </c>
+      <c r="D60">
+        <v>58424</v>
+      </c>
+      <c r="E60">
+        <v>8.4239999999999995E-2</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Web/UserEx.Web/wwwroot/Files/CDRs-05_11_09_2022-58_Test.xlsx
+++ b/Web/UserEx.Web/wwwroot/Files/CDRs-05_11_09_2022-58_Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://naxex-my.sharepoint.com/personal/emil_hristov_tiebreak_solutions/Documents/Stuff/coding/ASP.NET/UseEx_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:40009_{FE1188AE-CE64-4C70-85CC-BE83470E41A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68AF224A-BD90-4B3B-A662-8E91FEA1B6A6}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:40009_{FE1188AE-CE64-4C70-85CC-BE83470E41A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAFC80D3-EF5C-4115-B395-355E557018D0}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CDRs-05_11_09_2022-58" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -81,16 +81,10 @@
     <t>DIDWW</t>
   </si>
   <si>
-    <t>IDT-UK</t>
-  </si>
-  <si>
     <t>restricted</t>
   </si>
   <si>
     <t>DIDlogic</t>
-  </si>
-  <si>
-    <t>test</t>
   </si>
 </sst>
 </file>
@@ -933,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,68 +968,68 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>44809.653738425928</v>
+        <v>44809.713796296295</v>
       </c>
       <c r="B2" s="2">
-        <v>582123359401</v>
+        <v>448455641653</v>
       </c>
       <c r="C2" s="2">
-        <v>584125962479</v>
+        <v>584246265377</v>
       </c>
       <c r="D2">
-        <v>58412</v>
+        <v>58424</v>
       </c>
       <c r="E2">
-        <v>6.9000000000000006E-2</v>
+        <v>8.4239999999999995E-2</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>44809.653043981481</v>
+        <v>44809.714409722219</v>
       </c>
       <c r="B3" s="2">
-        <v>582123359400</v>
+        <v>441519471786</v>
       </c>
       <c r="C3" s="2">
-        <v>584125962478</v>
+        <v>584246265377</v>
       </c>
       <c r="D3">
-        <v>58412</v>
+        <v>58424</v>
       </c>
       <c r="E3">
-        <v>6.9000000000000006E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>44809.696018518516</v>
+        <v>44809.715624999997</v>
       </c>
       <c r="B4" s="2">
-        <v>582123359400</v>
+        <v>576015087102</v>
       </c>
       <c r="C4" s="2">
-        <v>584145289542</v>
+        <v>584124651224</v>
       </c>
       <c r="D4">
-        <v>58414</v>
+        <v>58412</v>
       </c>
       <c r="E4">
-        <v>0.05</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="F4">
-        <v>138</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -1043,22 +1037,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>44809.697893518518</v>
+        <v>44809.716446759259</v>
       </c>
       <c r="B5" s="2">
-        <v>582123358883</v>
+        <v>576015087102</v>
       </c>
       <c r="C5" s="2">
-        <v>584145729872</v>
+        <v>584124651224</v>
       </c>
       <c r="D5">
-        <v>58414</v>
+        <v>58412</v>
       </c>
       <c r="E5">
-        <v>0.05</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
@@ -1066,22 +1060,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>44809.697928240741</v>
+        <v>44809.716643518521</v>
       </c>
       <c r="B6" s="2">
-        <v>582123359400</v>
+        <v>302112341536</v>
       </c>
       <c r="C6" s="2">
-        <v>584145289542</v>
+        <v>584246265377</v>
       </c>
       <c r="D6">
-        <v>58414</v>
+        <v>58424</v>
       </c>
       <c r="E6">
-        <v>0.05</v>
+        <v>8.4239999999999995E-2</v>
       </c>
       <c r="F6">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
@@ -1089,16 +1083,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>44809.698634259257</v>
+        <v>44809.717141203706</v>
       </c>
       <c r="B7" s="2">
-        <v>582123358883</v>
+        <v>302112341536</v>
       </c>
       <c r="C7" s="2">
-        <v>584145729872</v>
+        <v>584246265377</v>
       </c>
       <c r="D7">
-        <v>58414</v>
+        <v>58424</v>
       </c>
       <c r="E7">
         <v>0.05</v>
@@ -1112,19 +1106,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>44809.71334490741</v>
+        <v>44809.738402777781</v>
       </c>
       <c r="B8" s="2">
-        <v>582123358883</v>
+        <v>302112341536</v>
       </c>
       <c r="C8" s="2">
-        <v>584246265377</v>
+        <v>584264178094</v>
       </c>
       <c r="D8">
-        <v>58424</v>
+        <v>58426</v>
       </c>
       <c r="E8">
-        <v>8.4239999999999995E-2</v>
+        <v>3.313E-2</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1135,19 +1129,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>44809.713796296295</v>
+        <v>44809.738483796296</v>
       </c>
       <c r="B9" s="2">
-        <v>582123358883</v>
+        <v>302112341536</v>
       </c>
       <c r="C9" s="2">
-        <v>584246265377</v>
+        <v>584264178094</v>
       </c>
       <c r="D9">
-        <v>58424</v>
+        <v>58426</v>
       </c>
       <c r="E9">
-        <v>8.4239999999999995E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1158,19 +1152,19 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>44809.714409722219</v>
+        <v>44809.738622685189</v>
       </c>
       <c r="B10" s="2">
-        <v>582123358883</v>
+        <v>302112341536</v>
       </c>
       <c r="C10" s="2">
-        <v>584246265377</v>
+        <v>584264178094</v>
       </c>
       <c r="D10">
-        <v>58424</v>
+        <v>58426</v>
       </c>
       <c r="E10">
-        <v>5.7000000000000002E-2</v>
+        <v>3.313E-2</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1181,22 +1175,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>44809.715624999997</v>
+        <v>44809.738749999997</v>
       </c>
       <c r="B11" s="2">
-        <v>576015087102</v>
+        <v>302112341536</v>
       </c>
       <c r="C11" s="2">
-        <v>584124651224</v>
+        <v>584264178094</v>
       </c>
       <c r="D11">
-        <v>58412</v>
+        <v>58426</v>
       </c>
       <c r="E11">
-        <v>6.9000000000000006E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F11">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
@@ -1204,22 +1198,22 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>44809.716446759259</v>
+        <v>44809.741863425923</v>
       </c>
       <c r="B12" s="2">
-        <v>576015087102</v>
+        <v>302112341536</v>
       </c>
       <c r="C12" s="2">
-        <v>584124651224</v>
+        <v>584166745200</v>
       </c>
       <c r="D12">
-        <v>58412</v>
+        <v>58416</v>
       </c>
       <c r="E12">
-        <v>6.9000000000000006E-2</v>
+        <v>3.313E-2</v>
       </c>
       <c r="F12">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
@@ -1227,19 +1221,19 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>44809.716643518521</v>
+        <v>44809.742199074077</v>
       </c>
       <c r="B13" s="2">
-        <v>582123358883</v>
+        <v>302112341536</v>
       </c>
       <c r="C13" s="2">
-        <v>584246265377</v>
+        <v>584166745200</v>
       </c>
       <c r="D13">
-        <v>58424</v>
+        <v>58416</v>
       </c>
       <c r="E13">
-        <v>8.4239999999999995E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1250,22 +1244,22 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>44809.717141203706</v>
+        <v>44809.752754629626</v>
       </c>
       <c r="B14" s="2">
         <v>582123358883</v>
       </c>
       <c r="C14" s="2">
-        <v>584246265377</v>
+        <v>584120793060</v>
       </c>
       <c r="D14">
-        <v>58424</v>
+        <v>58412</v>
       </c>
       <c r="E14">
-        <v>0.05</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G14" t="s">
         <v>13</v>
@@ -1273,19 +1267,19 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>44809.738402777781</v>
+        <v>44809.75708333333</v>
       </c>
       <c r="B15" s="2">
-        <v>582123359401</v>
+        <v>582123358883</v>
       </c>
       <c r="C15" s="2">
-        <v>584264178094</v>
+        <v>584247680107</v>
       </c>
       <c r="D15">
-        <v>58426</v>
+        <v>58424</v>
       </c>
       <c r="E15">
-        <v>3.313E-2</v>
+        <v>8.4239999999999995E-2</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1296,128 +1290,128 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>44809.738483796296</v>
+        <v>44809.757199074076</v>
       </c>
       <c r="B16" s="2">
-        <v>582123359401</v>
+        <v>582123358883</v>
       </c>
       <c r="C16" s="2">
-        <v>584264178094</v>
+        <v>584247680107</v>
       </c>
       <c r="D16">
-        <v>58426</v>
+        <v>58424</v>
       </c>
       <c r="E16">
-        <v>2.3E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>44809.738622685189</v>
+        <v>44809.767210648148</v>
       </c>
       <c r="B17" s="2">
-        <v>582123359401</v>
+        <v>582123359400</v>
       </c>
       <c r="C17" s="2">
-        <v>584264178094</v>
+        <v>584126041686</v>
       </c>
       <c r="D17">
-        <v>58426</v>
+        <v>58412</v>
       </c>
       <c r="E17">
-        <v>3.313E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>44809.738749999997</v>
+        <v>44809.767754629633</v>
       </c>
       <c r="B18" s="2">
-        <v>582123359401</v>
+        <v>582123359400</v>
       </c>
       <c r="C18" s="2">
-        <v>584264178094</v>
+        <v>584126041686</v>
       </c>
       <c r="D18">
-        <v>58426</v>
+        <v>58412</v>
       </c>
       <c r="E18">
-        <v>0.05</v>
+        <v>7.9799999999999996E-2</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>44809.741863425923</v>
+        <v>44809.768240740741</v>
       </c>
       <c r="B19" s="2">
-        <v>582123358883</v>
+        <v>582123359400</v>
       </c>
       <c r="C19" s="2">
-        <v>584166745200</v>
+        <v>584126041686</v>
       </c>
       <c r="D19">
-        <v>58416</v>
+        <v>58412</v>
       </c>
       <c r="E19">
-        <v>3.313E-2</v>
+        <v>7.9799999999999996E-2</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>44809.742199074077</v>
+        <v>44809.768576388888</v>
       </c>
       <c r="B20" s="2">
-        <v>582123358883</v>
+        <v>582123359400</v>
       </c>
       <c r="C20" s="2">
-        <v>584166745200</v>
+        <v>584126041686</v>
       </c>
       <c r="D20">
-        <v>58416</v>
+        <v>58412</v>
       </c>
       <c r="E20">
-        <v>2.3E-2</v>
+        <v>7.9799999999999996E-2</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>44809.752754629626</v>
+        <v>44809.768738425926</v>
       </c>
       <c r="B21" s="2">
-        <v>582123358883</v>
+        <v>582123359400</v>
       </c>
       <c r="C21" s="2">
-        <v>584120793060</v>
+        <v>584126041686</v>
       </c>
       <c r="D21">
         <v>58412</v>
@@ -1426,24 +1420,24 @@
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="F21">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>44809.75708333333</v>
+        <v>44809.770983796298</v>
       </c>
       <c r="B22" s="2">
         <v>582123358883</v>
       </c>
       <c r="C22" s="2">
-        <v>584247680107</v>
+        <v>584141208521</v>
       </c>
       <c r="D22">
-        <v>58424</v>
+        <v>58414</v>
       </c>
       <c r="E22">
         <v>8.4239999999999995E-2</v>
@@ -1452,317 +1446,317 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>44809.757199074076</v>
-      </c>
-      <c r="B23" s="2">
-        <v>582123358883</v>
+        <v>44809.771226851852</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C23" s="2">
-        <v>584247680107</v>
+        <v>584141208521</v>
       </c>
       <c r="D23">
-        <v>58424</v>
+        <v>58414</v>
       </c>
       <c r="E23">
-        <v>0.05</v>
+        <v>8.4239999999999995E-2</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>44809.767210648148</v>
+        <v>44809.777372685188</v>
       </c>
       <c r="B24" s="2">
-        <v>582123359400</v>
+        <v>582123358883</v>
       </c>
       <c r="C24" s="2">
-        <v>584126041686</v>
+        <v>584241954301</v>
       </c>
       <c r="D24">
-        <v>58412</v>
+        <v>58424</v>
       </c>
       <c r="E24">
-        <v>6.9000000000000006E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>44809.767754629633</v>
+        <v>44809.780173611114</v>
       </c>
       <c r="B25" s="2">
-        <v>582123359400</v>
+        <v>528153503308</v>
       </c>
       <c r="C25" s="2">
-        <v>584126041686</v>
+        <v>58983708318</v>
       </c>
       <c r="D25">
-        <v>58412</v>
+        <v>58</v>
       </c>
       <c r="E25">
-        <v>7.9799999999999996E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>44809.768240740741</v>
+        <v>44809.780173611114</v>
       </c>
       <c r="B26" s="2">
-        <v>582123359400</v>
+        <v>528153503308</v>
       </c>
       <c r="C26" s="2">
-        <v>584126041686</v>
+        <v>58983708318</v>
       </c>
       <c r="D26">
-        <v>58412</v>
+        <v>58</v>
       </c>
       <c r="E26">
-        <v>7.9799999999999996E-2</v>
+        <v>1.5599999999999999E-2</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>44809.768576388888</v>
+        <v>44809.780173611114</v>
       </c>
       <c r="B27" s="2">
-        <v>582123359400</v>
+        <v>528153503308</v>
       </c>
       <c r="C27" s="2">
-        <v>584126041686</v>
+        <v>58983708318</v>
       </c>
       <c r="D27">
-        <v>58412</v>
+        <v>58</v>
       </c>
       <c r="E27">
-        <v>7.9799999999999996E-2</v>
+        <v>1.5599999999999999E-2</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>44809.768738425926</v>
+        <v>44809.781678240739</v>
       </c>
       <c r="B28" s="2">
         <v>582123359400</v>
       </c>
       <c r="C28" s="2">
-        <v>584126041686</v>
+        <v>584125962478</v>
       </c>
       <c r="D28">
         <v>58412</v>
       </c>
       <c r="E28">
-        <v>6.9000000000000006E-2</v>
+        <v>7.9799999999999996E-2</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>44809.770983796298</v>
+        <v>44809.781712962962</v>
       </c>
       <c r="B29" s="2">
-        <v>582123358883</v>
+        <v>582123359400</v>
       </c>
       <c r="C29" s="2">
-        <v>584141208521</v>
+        <v>584125962478</v>
       </c>
       <c r="D29">
-        <v>58414</v>
+        <v>58412</v>
       </c>
       <c r="E29">
-        <v>8.4239999999999995E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>44809.771226851852</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>15</v>
+        <v>44809.783692129633</v>
+      </c>
+      <c r="B30" s="2">
+        <v>582123359400</v>
       </c>
       <c r="C30" s="2">
-        <v>584141208521</v>
+        <v>584128984639</v>
       </c>
       <c r="D30">
-        <v>58414</v>
+        <v>58412</v>
       </c>
       <c r="E30">
-        <v>8.4239999999999995E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>44809.777372685188</v>
+        <v>44809.783761574072</v>
       </c>
       <c r="B31" s="2">
-        <v>582123358883</v>
+        <v>582123359400</v>
       </c>
       <c r="C31" s="2">
-        <v>584241954301</v>
+        <v>584127742643</v>
       </c>
       <c r="D31">
-        <v>58424</v>
+        <v>58412</v>
       </c>
       <c r="E31">
-        <v>0.05</v>
+        <v>7.9799999999999996E-2</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>44809.780173611114</v>
+        <v>44809.783854166664</v>
       </c>
       <c r="B32" s="2">
-        <v>528153503308</v>
+        <v>582123359400</v>
       </c>
       <c r="C32" s="2">
-        <v>58983708318</v>
+        <v>584127742643</v>
       </c>
       <c r="D32">
-        <v>58</v>
+        <v>58412</v>
       </c>
       <c r="E32">
-        <v>1.4999999999999999E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>44809.780173611114</v>
-      </c>
-      <c r="B33" s="2">
-        <v>528153503308</v>
+        <v>44809.784398148149</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C33" s="2">
-        <v>58983708318</v>
+        <v>584127742643</v>
       </c>
       <c r="D33">
-        <v>58</v>
+        <v>58412</v>
       </c>
       <c r="E33">
-        <v>1.5599999999999999E-2</v>
+        <v>7.9799999999999996E-2</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>44809.780173611114</v>
-      </c>
-      <c r="B34" s="2">
-        <v>528153503308</v>
+        <v>44809.784907407404</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C34" s="2">
-        <v>58983708318</v>
+        <v>584127742643</v>
       </c>
       <c r="D34">
-        <v>58</v>
+        <v>58412</v>
       </c>
       <c r="E34">
-        <v>1.5599999999999999E-2</v>
+        <v>7.9799999999999996E-2</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>44809.781678240739</v>
-      </c>
-      <c r="B35" s="2">
-        <v>582123359400</v>
+        <v>44809.785000000003</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C35" s="2">
-        <v>584125962478</v>
+        <v>584127742643</v>
       </c>
       <c r="D35">
         <v>58412</v>
       </c>
       <c r="E35">
-        <v>7.9799999999999996E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>44809.781712962962</v>
+        <v>44809.802118055559</v>
       </c>
       <c r="B36" s="2">
-        <v>582123359400</v>
+        <v>582123358883</v>
       </c>
       <c r="C36" s="2">
-        <v>584125962478</v>
+        <v>584120672358</v>
       </c>
       <c r="D36">
         <v>58412</v>
@@ -1774,18 +1768,18 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>44809.783692129633</v>
+        <v>44809.803032407406</v>
       </c>
       <c r="B37" s="2">
-        <v>582123359400</v>
+        <v>582123358883</v>
       </c>
       <c r="C37" s="2">
-        <v>584128984639</v>
+        <v>584121028200</v>
       </c>
       <c r="D37">
         <v>58412</v>
@@ -1794,21 +1788,21 @@
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>44809.783761574072</v>
+        <v>44809.803124999999</v>
       </c>
       <c r="B38" s="2">
-        <v>582123359400</v>
+        <v>582123358883</v>
       </c>
       <c r="C38" s="2">
-        <v>584127742643</v>
+        <v>584120672358</v>
       </c>
       <c r="D38">
         <v>58412</v>
@@ -1820,513 +1814,352 @@
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>44809.783854166664</v>
+        <v>44809.803287037037</v>
       </c>
       <c r="B39" s="2">
-        <v>582123359400</v>
+        <v>582123358883</v>
       </c>
       <c r="C39" s="2">
-        <v>584127742643</v>
+        <v>584120672358</v>
       </c>
       <c r="D39">
         <v>58412</v>
       </c>
       <c r="E39">
-        <v>6.9000000000000006E-2</v>
+        <v>7.9799999999999996E-2</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="G39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>44809.784398148149</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>15</v>
+        <v>44809.812557870369</v>
+      </c>
+      <c r="B40" s="2">
+        <v>582123359400</v>
       </c>
       <c r="C40" s="2">
-        <v>584127742643</v>
+        <v>584249500488</v>
       </c>
       <c r="D40">
-        <v>58412</v>
+        <v>58424</v>
       </c>
       <c r="E40">
-        <v>7.9799999999999996E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>44809.784907407404</v>
-      </c>
-      <c r="B41" s="2" t="s">
+        <v>44809.812916666669</v>
+      </c>
+      <c r="B41" s="2">
+        <v>582123359400</v>
+      </c>
+      <c r="C41" s="2">
+        <v>584249500488</v>
+      </c>
+      <c r="D41">
+        <v>58424</v>
+      </c>
+      <c r="E41">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="F41">
+        <v>8</v>
+      </c>
+      <c r="G41" t="s">
         <v>15</v>
-      </c>
-      <c r="C41" s="2">
-        <v>584127742643</v>
-      </c>
-      <c r="D41">
-        <v>58412</v>
-      </c>
-      <c r="E41">
-        <v>7.9799999999999996E-2</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>44809.785000000003</v>
-      </c>
-      <c r="B42" s="2" t="s">
+        <v>44809.813449074078</v>
+      </c>
+      <c r="B42" s="2">
+        <v>582123358883</v>
+      </c>
+      <c r="C42" s="2">
+        <v>584247273078</v>
+      </c>
+      <c r="D42">
+        <v>58424</v>
+      </c>
+      <c r="E42">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="F42">
+        <v>20</v>
+      </c>
+      <c r="G42" t="s">
         <v>15</v>
-      </c>
-      <c r="C42" s="2">
-        <v>584127742643</v>
-      </c>
-      <c r="D42">
-        <v>58412</v>
-      </c>
-      <c r="E42">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>44809.802118055559</v>
+        <v>44809.813946759263</v>
       </c>
       <c r="B43" s="2">
         <v>582123358883</v>
       </c>
       <c r="C43" s="2">
-        <v>584120672358</v>
+        <v>584247273078</v>
       </c>
       <c r="D43">
-        <v>58412</v>
+        <v>58424</v>
       </c>
       <c r="E43">
-        <v>6.9000000000000006E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="G43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>44809.803032407406</v>
+        <v>44809.814386574071</v>
       </c>
       <c r="B44" s="2">
         <v>582123358883</v>
       </c>
       <c r="C44" s="2">
-        <v>584121028200</v>
+        <v>584122052776</v>
       </c>
       <c r="D44">
         <v>58412</v>
       </c>
       <c r="E44">
-        <v>6.9000000000000006E-2</v>
+        <v>7.9799999999999996E-2</v>
       </c>
       <c r="F44">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>44809.803124999999</v>
+        <v>44809.815011574072</v>
       </c>
       <c r="B45" s="2">
-        <v>582123358883</v>
+        <v>582123359400</v>
       </c>
       <c r="C45" s="2">
-        <v>584120672358</v>
+        <v>584126609033</v>
       </c>
       <c r="D45">
         <v>58412</v>
       </c>
       <c r="E45">
-        <v>7.9799999999999996E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>44809.803287037037</v>
+        <v>44809.81517361111</v>
       </c>
       <c r="B46" s="2">
-        <v>582123358883</v>
+        <v>582123359400</v>
       </c>
       <c r="C46" s="2">
-        <v>584120672358</v>
+        <v>584247026833</v>
       </c>
       <c r="D46">
-        <v>58412</v>
+        <v>58424</v>
       </c>
       <c r="E46">
-        <v>7.9799999999999996E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F46">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="G46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>44809.812557870369</v>
+        <v>44809.815254629626</v>
       </c>
       <c r="B47" s="2">
-        <v>582123359400</v>
+        <v>582123358883</v>
       </c>
       <c r="C47" s="2">
-        <v>584249500488</v>
+        <v>584122052776</v>
       </c>
       <c r="D47">
-        <v>58424</v>
+        <v>58412</v>
       </c>
       <c r="E47">
-        <v>0.05</v>
+        <v>7.9799999999999996E-2</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>44809.812916666669</v>
+        <v>44809.815451388888</v>
       </c>
       <c r="B48" s="2">
-        <v>582123359400</v>
+        <v>582123358883</v>
       </c>
       <c r="C48" s="2">
-        <v>584249500488</v>
+        <v>584122052776</v>
       </c>
       <c r="D48">
-        <v>58424</v>
+        <v>58412</v>
       </c>
       <c r="E48">
-        <v>5.7000000000000002E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="F48">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="G48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>44809.813449074078</v>
+        <v>44809.81591435185</v>
       </c>
       <c r="B49" s="2">
-        <v>582123358883</v>
+        <v>582123359400</v>
       </c>
       <c r="C49" s="2">
-        <v>584247273078</v>
+        <v>584248122961</v>
       </c>
       <c r="D49">
         <v>58424</v>
       </c>
       <c r="E49">
-        <v>5.7000000000000002E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F49">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="G49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>44809.813946759263</v>
+        <v>44809.815983796296</v>
       </c>
       <c r="B50" s="2">
-        <v>582123358883</v>
+        <v>582123359400</v>
       </c>
       <c r="C50" s="2">
-        <v>584247273078</v>
+        <v>584126609033</v>
       </c>
       <c r="D50">
-        <v>58424</v>
+        <v>58412</v>
       </c>
       <c r="E50">
-        <v>5.7000000000000002E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="F50">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>44809.814386574071</v>
+        <v>44809.816469907404</v>
       </c>
       <c r="B51" s="2">
         <v>582123358883</v>
       </c>
       <c r="C51" s="2">
-        <v>584122052776</v>
+        <v>584247273078</v>
       </c>
       <c r="D51">
-        <v>58412</v>
+        <v>58424</v>
       </c>
       <c r="E51">
-        <v>7.9799999999999996E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>44809.815011574072</v>
+        <v>44809.817071759258</v>
       </c>
       <c r="B52" s="2">
-        <v>582123359400</v>
+        <v>448455641653</v>
       </c>
       <c r="C52" s="2">
-        <v>584126609033</v>
+        <v>584248122961</v>
       </c>
       <c r="D52">
-        <v>58412</v>
+        <v>58424</v>
       </c>
       <c r="E52">
-        <v>6.9000000000000006E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>44809.81517361111</v>
+        <v>44809.817106481481</v>
       </c>
       <c r="B53" s="2">
-        <v>582123359400</v>
+        <v>448455641653</v>
       </c>
       <c r="C53" s="2">
-        <v>584247026833</v>
+        <v>584247273078</v>
       </c>
       <c r="D53">
         <v>58424</v>
       </c>
       <c r="E53">
-        <v>0.05</v>
+        <v>8.4239999999999995E-2</v>
       </c>
       <c r="F53">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>44809.815254629626</v>
-      </c>
-      <c r="B54" s="2">
-        <v>582123358883</v>
-      </c>
-      <c r="C54" s="2">
-        <v>584122052776</v>
-      </c>
-      <c r="D54">
-        <v>58412</v>
-      </c>
-      <c r="E54">
-        <v>7.9799999999999996E-2</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>44809.815451388888</v>
-      </c>
-      <c r="B55" s="2">
-        <v>582123358883</v>
-      </c>
-      <c r="C55" s="2">
-        <v>584122052776</v>
-      </c>
-      <c r="D55">
-        <v>58412</v>
-      </c>
-      <c r="E55">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="F55">
-        <v>66</v>
-      </c>
-      <c r="G55" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>44809.81591435185</v>
-      </c>
-      <c r="B56" s="2">
-        <v>582123359400</v>
-      </c>
-      <c r="C56" s="2">
-        <v>584248122961</v>
-      </c>
-      <c r="D56">
-        <v>58424</v>
-      </c>
-      <c r="E56">
-        <v>0.05</v>
-      </c>
-      <c r="F56">
-        <v>35</v>
-      </c>
-      <c r="G56" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>44809.815983796296</v>
-      </c>
-      <c r="B57" s="2">
-        <v>582123359400</v>
-      </c>
-      <c r="C57" s="2">
-        <v>584126609033</v>
-      </c>
-      <c r="D57">
-        <v>58412</v>
-      </c>
-      <c r="E57">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>44809.816469907404</v>
-      </c>
-      <c r="B58" s="2">
-        <v>582123358883</v>
-      </c>
-      <c r="C58" s="2">
-        <v>584247273078</v>
-      </c>
-      <c r="D58">
-        <v>58424</v>
-      </c>
-      <c r="E58">
-        <v>0.05</v>
-      </c>
-      <c r="F58">
-        <v>4</v>
-      </c>
-      <c r="G58" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>44809.817071759258</v>
-      </c>
-      <c r="B59" s="2">
-        <v>582123359400</v>
-      </c>
-      <c r="C59" s="2">
-        <v>584248122961</v>
-      </c>
-      <c r="D59">
-        <v>58424</v>
-      </c>
-      <c r="E59">
-        <v>0.05</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>44809.817106481481</v>
-      </c>
-      <c r="B60" s="2">
-        <v>582123358883</v>
-      </c>
-      <c r="C60" s="2">
-        <v>584247273078</v>
-      </c>
-      <c r="D60">
-        <v>58424</v>
-      </c>
-      <c r="E60">
-        <v>8.4239999999999995E-2</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Web/UserEx.Web/wwwroot/Files/CDRs-05_11_09_2022-58_Test.xlsx
+++ b/Web/UserEx.Web/wwwroot/Files/CDRs-05_11_09_2022-58_Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://naxex-my.sharepoint.com/personal/emil_hristov_tiebreak_solutions/Documents/Stuff/coding/ASP.NET/UseEx_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:40009_{FE1188AE-CE64-4C70-85CC-BE83470E41A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAFC80D3-EF5C-4115-B395-355E557018D0}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="13_ncr:40009_{FE1188AE-CE64-4C70-85CC-BE83470E41A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{997B5FBC-9BA4-46BE-86E3-16FAC32CB544}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CDRs-05_11_09_2022-58" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>DIDlogic</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -929,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">

--- a/Web/UserEx.Web/wwwroot/Files/CDRs-05_11_09_2022-58_Test.xlsx
+++ b/Web/UserEx.Web/wwwroot/Files/CDRs-05_11_09_2022-58_Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://naxex-my.sharepoint.com/personal/emil_hristov_tiebreak_solutions/Documents/Stuff/coding/ASP.NET/UseEx_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="13_ncr:40009_{FE1188AE-CE64-4C70-85CC-BE83470E41A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{997B5FBC-9BA4-46BE-86E3-16FAC32CB544}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:40009_{FE1188AE-CE64-4C70-85CC-BE83470E41A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{407D5506-397C-4141-B496-1ED9E4EA0722}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>DIDlogic</t>
-  </si>
-  <si>
-    <t>test</t>
   </si>
 </sst>
 </file>
@@ -933,7 +930,7 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">

--- a/Web/UserEx.Web/wwwroot/Files/CDRs-05_11_09_2022-58_Test.xlsx
+++ b/Web/UserEx.Web/wwwroot/Files/CDRs-05_11_09_2022-58_Test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://naxex-my.sharepoint.com/personal/emil_hristov_tiebreak_solutions/Documents/Stuff/coding/ASP.NET/UseEx_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:40009_{FE1188AE-CE64-4C70-85CC-BE83470E41A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{407D5506-397C-4141-B496-1ED9E4EA0722}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="13_ncr:40009_{FE1188AE-CE64-4C70-85CC-BE83470E41A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F1305C9-08EE-4D18-AE9E-61D6ABF238B1}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CDRs-05_11_09_2022-58" sheetId="1" r:id="rId1"/>
@@ -630,6 +630,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -929,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1029,7 +1033,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="F4">
-        <v>23</v>
+        <v>230</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -1259,7 +1263,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="F14">
-        <v>44</v>
+        <v>440</v>
       </c>
       <c r="G14" t="s">
         <v>13</v>
@@ -1788,7 +1792,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="F37">
-        <v>75</v>
+        <v>750</v>
       </c>
       <c r="G37" t="s">
         <v>15</v>
